--- a/Spain Primera Division RFEF/Spain Primera Division RFEF.xlsx
+++ b/Spain Primera Division RFEF/Spain Primera Division RFEF.xlsx
@@ -62413,85 +62413,85 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>6947854</v>
+        <v>6947739</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
       </c>
       <c r="D695" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E695" s="2">
         <v>45262.58333333334</v>
       </c>
       <c r="F695" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G695" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H695">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J695" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K695">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="L695">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M695">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N695">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O695">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P695">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q695">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R695">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S695">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T695">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U695">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V695">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W695">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X695">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y695">
         <v>-1</v>
       </c>
       <c r="Z695">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB695">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -62502,85 +62502,85 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>6947739</v>
+        <v>6947854</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
       </c>
       <c r="D696" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E696" s="2">
         <v>45262.58333333334</v>
       </c>
       <c r="F696" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G696" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I696">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J696" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K696">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="L696">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M696">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N696">
+        <v>1.285</v>
+      </c>
+      <c r="O696">
+        <v>5.25</v>
+      </c>
+      <c r="P696">
+        <v>7.5</v>
+      </c>
+      <c r="Q696">
+        <v>-1.5</v>
+      </c>
+      <c r="R696">
+        <v>1.825</v>
+      </c>
+      <c r="S696">
+        <v>1.975</v>
+      </c>
+      <c r="T696">
+        <v>2.75</v>
+      </c>
+      <c r="U696">
+        <v>1.85</v>
+      </c>
+      <c r="V696">
         <v>1.95</v>
       </c>
-      <c r="O696">
-        <v>3</v>
-      </c>
-      <c r="P696">
-        <v>3.6</v>
-      </c>
-      <c r="Q696">
-        <v>-0.5</v>
-      </c>
-      <c r="R696">
-        <v>2</v>
-      </c>
-      <c r="S696">
-        <v>1.8</v>
-      </c>
-      <c r="T696">
-        <v>1.75</v>
-      </c>
-      <c r="U696">
-        <v>1.775</v>
-      </c>
-      <c r="V696">
-        <v>2.025</v>
-      </c>
       <c r="W696">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X696">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y696">
         <v>-1</v>
       </c>
       <c r="Z696">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA696">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB696">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC696">
         <v>-1</v>
@@ -64549,7 +64549,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>6947859</v>
+        <v>6948027</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64561,76 +64561,76 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F719" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G719" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H719">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I719">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J719" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K719">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L719">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M719">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N719">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O719">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P719">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q719">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R719">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S719">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T719">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U719">
         <v>1.975</v>
       </c>
       <c r="V719">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W719">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X719">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB719">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC719">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64638,7 +64638,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>6948027</v>
+        <v>6949783</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64650,76 +64650,76 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F720" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G720" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I720">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J720" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K720">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L720">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M720">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N720">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O720">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P720">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q720">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R720">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S720">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T720">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U720">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V720">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W720">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X720">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y720">
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA720">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB720">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC720">
-        <v>0.3625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="721" spans="1:29">
@@ -64727,7 +64727,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>6949783</v>
+        <v>6947859</v>
       </c>
       <c r="C721" t="s">
         <v>28</v>
@@ -64739,58 +64739,58 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F721" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G721" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I721">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J721" t="s">
         <v>85</v>
       </c>
       <c r="K721">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L721">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M721">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N721">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O721">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P721">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q721">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R721">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S721">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T721">
         <v>2</v>
       </c>
       <c r="U721">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V721">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W721">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="X721">
         <v>-1</v>
@@ -64799,16 +64799,16 @@
         <v>-1</v>
       </c>
       <c r="Z721">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA721">
         <v>-1</v>
       </c>
       <c r="AB721">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC721">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="722" spans="1:29">
@@ -65528,88 +65528,88 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>6949688</v>
+        <v>6949782</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
       </c>
       <c r="D730" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E730" s="2">
         <v>45270.66666666666</v>
       </c>
       <c r="F730" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G730" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J730" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K730">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L730">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M730">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N730">
         <v>2.45</v>
       </c>
       <c r="O730">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P730">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q730">
         <v>0</v>
       </c>
       <c r="R730">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S730">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T730">
         <v>2</v>
       </c>
       <c r="U730">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V730">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W730">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X730">
         <v>-1</v>
       </c>
       <c r="Y730">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z730">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA730">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB730">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC730">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="731" spans="1:29">
@@ -65617,88 +65617,88 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>6949782</v>
+        <v>6949688</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
       </c>
       <c r="D731" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E731" s="2">
         <v>45270.66666666666</v>
       </c>
       <c r="F731" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G731" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I731">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J731" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K731">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L731">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M731">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N731">
         <v>2.45</v>
       </c>
       <c r="O731">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P731">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q731">
         <v>0</v>
       </c>
       <c r="R731">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S731">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T731">
         <v>2</v>
       </c>
       <c r="U731">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V731">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W731">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X731">
         <v>-1</v>
       </c>
       <c r="Y731">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z731">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA731">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB731">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC731">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -67486,49 +67486,49 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>6949519</v>
+        <v>6949787</v>
       </c>
       <c r="C752" t="s">
         <v>28</v>
       </c>
       <c r="D752" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E752" s="2">
         <v>45293.625</v>
       </c>
       <c r="F752" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G752" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J752" t="s">
         <v>86</v>
       </c>
       <c r="K752">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L752">
         <v>3</v>
       </c>
       <c r="M752">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N752">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O752">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P752">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q752">
         <v>-0.25</v>
@@ -67537,10 +67537,10 @@
         <v>2</v>
       </c>
       <c r="S752">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T752">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U752">
         <v>1.9</v>
@@ -67555,19 +67555,19 @@
         <v>-1</v>
       </c>
       <c r="Y752">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Z752">
         <v>-1</v>
       </c>
       <c r="AA752">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB752">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC752">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753" spans="1:29">
@@ -67575,49 +67575,49 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>6949787</v>
+        <v>6949519</v>
       </c>
       <c r="C753" t="s">
         <v>28</v>
       </c>
       <c r="D753" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E753" s="2">
         <v>45293.625</v>
       </c>
       <c r="F753" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G753" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J753" t="s">
         <v>86</v>
       </c>
       <c r="K753">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L753">
         <v>3</v>
       </c>
       <c r="M753">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N753">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O753">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P753">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q753">
         <v>-0.25</v>
@@ -67626,10 +67626,10 @@
         <v>2</v>
       </c>
       <c r="S753">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T753">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U753">
         <v>1.9</v>
@@ -67644,19 +67644,19 @@
         <v>-1</v>
       </c>
       <c r="Y753">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z753">
         <v>-1</v>
       </c>
       <c r="AA753">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB753">
+        <v>-1</v>
+      </c>
+      <c r="AC753">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC753">
-        <v>-1</v>
       </c>
     </row>
     <row r="754" spans="1:29">
@@ -68109,28 +68109,28 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>6949520</v>
+        <v>6947865</v>
       </c>
       <c r="C759" t="s">
         <v>28</v>
       </c>
       <c r="D759" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E759" s="2">
         <v>45294.625</v>
       </c>
       <c r="F759" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G759" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H759">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I759">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J759" t="s">
         <v>85</v>
@@ -68139,58 +68139,58 @@
         <v>1.95</v>
       </c>
       <c r="L759">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M759">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N759">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O759">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P759">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q759">
+        <v>-0.75</v>
+      </c>
+      <c r="R759">
+        <v>2</v>
+      </c>
+      <c r="S759">
+        <v>1.8</v>
+      </c>
+      <c r="T759">
+        <v>2</v>
+      </c>
+      <c r="U759">
+        <v>2.025</v>
+      </c>
+      <c r="V759">
+        <v>1.775</v>
+      </c>
+      <c r="W759">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X759">
+        <v>-1</v>
+      </c>
+      <c r="Y759">
+        <v>-1</v>
+      </c>
+      <c r="Z759">
+        <v>0.5</v>
+      </c>
+      <c r="AA759">
         <v>-0.5</v>
       </c>
-      <c r="R759">
-        <v>1.825</v>
-      </c>
-      <c r="S759">
-        <v>1.975</v>
-      </c>
-      <c r="T759">
-        <v>2.25</v>
-      </c>
-      <c r="U759">
-        <v>2</v>
-      </c>
-      <c r="V759">
-        <v>1.8</v>
-      </c>
-      <c r="W759">
-        <v>0.833</v>
-      </c>
-      <c r="X759">
-        <v>-1</v>
-      </c>
-      <c r="Y759">
-        <v>-1</v>
-      </c>
-      <c r="Z759">
-        <v>0.825</v>
-      </c>
-      <c r="AA759">
-        <v>-1</v>
-      </c>
       <c r="AB759">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC759">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="760" spans="1:29">
@@ -68198,28 +68198,28 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>6947865</v>
+        <v>6949520</v>
       </c>
       <c r="C760" t="s">
         <v>28</v>
       </c>
       <c r="D760" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E760" s="2">
         <v>45294.625</v>
       </c>
       <c r="F760" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G760" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I760">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J760" t="s">
         <v>85</v>
@@ -68228,40 +68228,40 @@
         <v>1.95</v>
       </c>
       <c r="L760">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M760">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N760">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O760">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P760">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q760">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R760">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S760">
+        <v>1.975</v>
+      </c>
+      <c r="T760">
+        <v>2.25</v>
+      </c>
+      <c r="U760">
+        <v>2</v>
+      </c>
+      <c r="V760">
         <v>1.8</v>
       </c>
-      <c r="T760">
-        <v>2</v>
-      </c>
-      <c r="U760">
-        <v>2.025</v>
-      </c>
-      <c r="V760">
-        <v>1.775</v>
-      </c>
       <c r="W760">
-        <v>0.7270000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X760">
         <v>-1</v>
@@ -68270,16 +68270,16 @@
         <v>-1</v>
       </c>
       <c r="Z760">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA760">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB760">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC760">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="761" spans="1:29">
@@ -68554,58 +68554,58 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>6947753</v>
+        <v>6947868</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
       </c>
       <c r="D764" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E764" s="2">
         <v>45294.70833333334</v>
       </c>
       <c r="F764" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G764" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H764">
         <v>0</v>
       </c>
       <c r="I764">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J764" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K764">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="L764">
+        <v>3</v>
+      </c>
+      <c r="M764">
+        <v>2.875</v>
+      </c>
+      <c r="N764">
+        <v>1.65</v>
+      </c>
+      <c r="O764">
         <v>3.4</v>
       </c>
-      <c r="M764">
-        <v>4.75</v>
-      </c>
-      <c r="N764">
-        <v>1.7</v>
-      </c>
-      <c r="O764">
-        <v>3.5</v>
-      </c>
       <c r="P764">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q764">
         <v>-0.75</v>
       </c>
       <c r="R764">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S764">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T764">
         <v>2.25</v>
@@ -68614,28 +68614,28 @@
         <v>1.975</v>
       </c>
       <c r="V764">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W764">
         <v>-1</v>
       </c>
       <c r="X764">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y764">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z764">
         <v>-1</v>
       </c>
       <c r="AA764">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB764">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC764">
-        <v>0.4125</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="765" spans="1:29">
@@ -68643,58 +68643,58 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>6947868</v>
+        <v>6947753</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
       </c>
       <c r="D765" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E765" s="2">
         <v>45294.70833333334</v>
       </c>
       <c r="F765" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G765" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H765">
         <v>0</v>
       </c>
       <c r="I765">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J765" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K765">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="L765">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M765">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N765">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O765">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P765">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q765">
         <v>-0.75</v>
       </c>
       <c r="R765">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S765">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T765">
         <v>2.25</v>
@@ -68703,28 +68703,28 @@
         <v>1.975</v>
       </c>
       <c r="V765">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W765">
         <v>-1</v>
       </c>
       <c r="X765">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y765">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z765">
         <v>-1</v>
       </c>
       <c r="AA765">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB765">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC765">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="766" spans="1:29">
@@ -68821,7 +68821,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>7648126</v>
+        <v>6947754</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68833,13 +68833,13 @@
         <v>45295.625</v>
       </c>
       <c r="F767" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G767" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H767">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767">
         <v>1</v>
@@ -68848,58 +68848,58 @@
         <v>85</v>
       </c>
       <c r="K767">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L767">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M767">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N767">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O767">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P767">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q767">
+        <v>-0.75</v>
+      </c>
+      <c r="R767">
+        <v>1.8</v>
+      </c>
+      <c r="S767">
+        <v>2</v>
+      </c>
+      <c r="T767">
+        <v>2.25</v>
+      </c>
+      <c r="U767">
+        <v>1.975</v>
+      </c>
+      <c r="V767">
+        <v>1.725</v>
+      </c>
+      <c r="W767">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X767">
+        <v>-1</v>
+      </c>
+      <c r="Y767">
+        <v>-1</v>
+      </c>
+      <c r="Z767">
+        <v>0.4</v>
+      </c>
+      <c r="AA767">
         <v>-0.5</v>
       </c>
-      <c r="R767">
-        <v>2</v>
-      </c>
-      <c r="S767">
-        <v>1.8</v>
-      </c>
-      <c r="T767">
-        <v>2</v>
-      </c>
-      <c r="U767">
-        <v>2</v>
-      </c>
-      <c r="V767">
-        <v>1.8</v>
-      </c>
-      <c r="W767">
-        <v>1</v>
-      </c>
-      <c r="X767">
-        <v>-1</v>
-      </c>
-      <c r="Y767">
-        <v>-1</v>
-      </c>
-      <c r="Z767">
-        <v>1</v>
-      </c>
-      <c r="AA767">
-        <v>-1</v>
-      </c>
       <c r="AB767">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC767">
         <v>-1</v>
@@ -68999,7 +68999,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6947754</v>
+        <v>7648126</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -69011,13 +69011,13 @@
         <v>45295.625</v>
       </c>
       <c r="F769" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G769" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I769">
         <v>1</v>
@@ -69026,43 +69026,43 @@
         <v>85</v>
       </c>
       <c r="K769">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="L769">
+        <v>3.1</v>
+      </c>
+      <c r="M769">
+        <v>2.9</v>
+      </c>
+      <c r="N769">
+        <v>2</v>
+      </c>
+      <c r="O769">
+        <v>3.1</v>
+      </c>
+      <c r="P769">
         <v>3.6</v>
       </c>
-      <c r="M769">
-        <v>4.5</v>
-      </c>
-      <c r="N769">
-        <v>1.65</v>
-      </c>
-      <c r="O769">
-        <v>3.75</v>
-      </c>
-      <c r="P769">
-        <v>4.5</v>
-      </c>
       <c r="Q769">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R769">
+        <v>2</v>
+      </c>
+      <c r="S769">
         <v>1.8</v>
       </c>
-      <c r="S769">
-        <v>2</v>
-      </c>
       <c r="T769">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U769">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V769">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="W769">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X769">
         <v>-1</v>
@@ -69071,13 +69071,13 @@
         <v>-1</v>
       </c>
       <c r="Z769">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA769">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB769">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC769">
         <v>-1</v>
@@ -71758,46 +71758,46 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>6949794</v>
+        <v>6949524</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
       </c>
       <c r="D800" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E800" s="2">
         <v>45312.33333333334</v>
       </c>
       <c r="F800" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G800" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H800">
         <v>1</v>
       </c>
       <c r="I800">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J800" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K800">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L800">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M800">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N800">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O800">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P800">
         <v>4</v>
@@ -71806,40 +71806,40 @@
         <v>-0.5</v>
       </c>
       <c r="R800">
+        <v>1.85</v>
+      </c>
+      <c r="S800">
+        <v>1.95</v>
+      </c>
+      <c r="T800">
+        <v>2.25</v>
+      </c>
+      <c r="U800">
         <v>2.025</v>
       </c>
-      <c r="S800">
+      <c r="V800">
         <v>1.775</v>
       </c>
-      <c r="T800">
-        <v>1.75</v>
-      </c>
-      <c r="U800">
-        <v>1.775</v>
-      </c>
-      <c r="V800">
-        <v>2.025</v>
-      </c>
       <c r="W800">
+        <v>-1</v>
+      </c>
+      <c r="X800">
+        <v>-1</v>
+      </c>
+      <c r="Y800">
+        <v>3</v>
+      </c>
+      <c r="Z800">
+        <v>-1</v>
+      </c>
+      <c r="AA800">
         <v>0.95</v>
       </c>
-      <c r="X800">
-        <v>-1</v>
-      </c>
-      <c r="Y800">
-        <v>-1</v>
-      </c>
-      <c r="Z800">
+      <c r="AB800">
         <v>1.025</v>
       </c>
-      <c r="AA800">
-        <v>-1</v>
-      </c>
-      <c r="AB800">
-        <v>-1</v>
-      </c>
       <c r="AC800">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -71847,46 +71847,46 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>6949524</v>
+        <v>6949794</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
       </c>
       <c r="D801" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E801" s="2">
         <v>45312.33333333334</v>
       </c>
       <c r="F801" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G801" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H801">
         <v>1</v>
       </c>
       <c r="I801">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J801" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K801">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L801">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M801">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N801">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O801">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P801">
         <v>4</v>
@@ -71895,40 +71895,40 @@
         <v>-0.5</v>
       </c>
       <c r="R801">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S801">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T801">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U801">
+        <v>1.775</v>
+      </c>
+      <c r="V801">
         <v>2.025</v>
       </c>
-      <c r="V801">
-        <v>1.775</v>
-      </c>
       <c r="W801">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X801">
         <v>-1</v>
       </c>
       <c r="Y801">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z801">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA801">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB801">
+        <v>-1</v>
+      </c>
+      <c r="AC801">
         <v>1.025</v>
-      </c>
-      <c r="AC801">
-        <v>-1</v>
       </c>
     </row>
     <row r="802" spans="1:29">
@@ -72292,88 +72292,88 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>7708501</v>
+        <v>6949596</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
       </c>
       <c r="D806" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E806" s="2">
         <v>45312.58333333334</v>
       </c>
       <c r="F806" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G806" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I806">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J806" t="s">
         <v>87</v>
       </c>
       <c r="K806">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L806">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M806">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="N806">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O806">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P806">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q806">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R806">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S806">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T806">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U806">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V806">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W806">
         <v>-1</v>
       </c>
       <c r="X806">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="Y806">
         <v>-1</v>
       </c>
       <c r="Z806">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA806">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB806">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC806">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -72470,88 +72470,88 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>6949596</v>
+        <v>7708501</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
       </c>
       <c r="D808" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E808" s="2">
         <v>45312.58333333334</v>
       </c>
       <c r="F808" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G808" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J808" t="s">
         <v>87</v>
       </c>
       <c r="K808">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L808">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M808">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N808">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O808">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P808">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q808">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R808">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S808">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T808">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U808">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V808">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W808">
         <v>-1</v>
       </c>
       <c r="X808">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="Y808">
         <v>-1</v>
       </c>
       <c r="Z808">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA808">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB808">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC808">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -75318,7 +75318,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>6947880</v>
+        <v>6949603</v>
       </c>
       <c r="C840" t="s">
         <v>28</v>
@@ -75330,13 +75330,13 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F840" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G840" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I840">
         <v>0</v>
@@ -75345,43 +75345,43 @@
         <v>85</v>
       </c>
       <c r="K840">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L840">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M840">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N840">
+        <v>1.25</v>
+      </c>
+      <c r="O840">
+        <v>4.75</v>
+      </c>
+      <c r="P840">
+        <v>12</v>
+      </c>
+      <c r="Q840">
+        <v>-1.5</v>
+      </c>
+      <c r="R840">
+        <v>1.9</v>
+      </c>
+      <c r="S840">
+        <v>1.9</v>
+      </c>
+      <c r="T840">
         <v>2.5</v>
       </c>
-      <c r="O840">
-        <v>3.2</v>
-      </c>
-      <c r="P840">
-        <v>2.625</v>
-      </c>
-      <c r="Q840">
-        <v>0</v>
-      </c>
-      <c r="R840">
+      <c r="U840">
+        <v>2</v>
+      </c>
+      <c r="V840">
         <v>1.8</v>
       </c>
-      <c r="S840">
-        <v>2</v>
-      </c>
-      <c r="T840">
-        <v>2.25</v>
-      </c>
-      <c r="U840">
-        <v>1.95</v>
-      </c>
-      <c r="V840">
-        <v>1.85</v>
-      </c>
       <c r="W840">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="X840">
         <v>-1</v>
@@ -75390,16 +75390,16 @@
         <v>-1</v>
       </c>
       <c r="Z840">
+        <v>-1</v>
+      </c>
+      <c r="AA840">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB840">
+        <v>-1</v>
+      </c>
+      <c r="AC840">
         <v>0.8</v>
-      </c>
-      <c r="AA840">
-        <v>-1</v>
-      </c>
-      <c r="AB840">
-        <v>-0.5</v>
-      </c>
-      <c r="AC840">
-        <v>0.425</v>
       </c>
     </row>
     <row r="841" spans="1:29">
@@ -75407,73 +75407,73 @@
         <v>839</v>
       </c>
       <c r="B841">
-        <v>6949603</v>
+        <v>7768952</v>
       </c>
       <c r="C841" t="s">
         <v>28</v>
       </c>
       <c r="D841" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E841" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="F841" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G841" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H841">
         <v>1</v>
       </c>
       <c r="I841">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J841" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K841">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="L841">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M841">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N841">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O841">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P841">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Q841">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R841">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S841">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T841">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U841">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V841">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W841">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X841">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y841">
         <v>-1</v>
@@ -75482,13 +75482,13 @@
         <v>-1</v>
       </c>
       <c r="AA841">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB841">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC841">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="842" spans="1:29">
@@ -75496,7 +75496,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>7768952</v>
+        <v>6947778</v>
       </c>
       <c r="C842" t="s">
         <v>28</v>
@@ -75508,10 +75508,10 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F842" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="G842" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H842">
         <v>1</v>
@@ -75523,46 +75523,46 @@
         <v>87</v>
       </c>
       <c r="K842">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L842">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M842">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N842">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O842">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P842">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q842">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R842">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S842">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T842">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U842">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V842">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W842">
         <v>-1</v>
       </c>
       <c r="X842">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y842">
         <v>-1</v>
@@ -75571,13 +75571,13 @@
         <v>-1</v>
       </c>
       <c r="AA842">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB842">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC842">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="843" spans="1:29">
@@ -75585,61 +75585,61 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>6947778</v>
+        <v>6949800</v>
       </c>
       <c r="C843" t="s">
         <v>28</v>
       </c>
       <c r="D843" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E843" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="F843" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G843" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I843">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J843" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K843">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L843">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M843">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N843">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O843">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P843">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q843">
         <v>-0.5</v>
       </c>
       <c r="R843">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S843">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T843">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U843">
         <v>1.85</v>
@@ -75648,25 +75648,25 @@
         <v>1.95</v>
       </c>
       <c r="W843">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X843">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y843">
         <v>-1</v>
       </c>
       <c r="Z843">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA843">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB843">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC843">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="844" spans="1:29">
@@ -75674,7 +75674,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>6949800</v>
+        <v>6947880</v>
       </c>
       <c r="C844" t="s">
         <v>28</v>
@@ -75686,10 +75686,10 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F844" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G844" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H844">
         <v>2</v>
@@ -75701,61 +75701,61 @@
         <v>85</v>
       </c>
       <c r="K844">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L844">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M844">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N844">
+        <v>2.5</v>
+      </c>
+      <c r="O844">
+        <v>3.2</v>
+      </c>
+      <c r="P844">
+        <v>2.625</v>
+      </c>
+      <c r="Q844">
+        <v>0</v>
+      </c>
+      <c r="R844">
+        <v>1.8</v>
+      </c>
+      <c r="S844">
+        <v>2</v>
+      </c>
+      <c r="T844">
+        <v>2.25</v>
+      </c>
+      <c r="U844">
         <v>1.95</v>
       </c>
-      <c r="O844">
-        <v>2.9</v>
-      </c>
-      <c r="P844">
-        <v>3.8</v>
-      </c>
-      <c r="Q844">
+      <c r="V844">
+        <v>1.85</v>
+      </c>
+      <c r="W844">
+        <v>1.5</v>
+      </c>
+      <c r="X844">
+        <v>-1</v>
+      </c>
+      <c r="Y844">
+        <v>-1</v>
+      </c>
+      <c r="Z844">
+        <v>0.8</v>
+      </c>
+      <c r="AA844">
+        <v>-1</v>
+      </c>
+      <c r="AB844">
         <v>-0.5</v>
       </c>
-      <c r="R844">
-        <v>2</v>
-      </c>
-      <c r="S844">
-        <v>1.8</v>
-      </c>
-      <c r="T844">
-        <v>1.75</v>
-      </c>
-      <c r="U844">
-        <v>1.85</v>
-      </c>
-      <c r="V844">
-        <v>1.95</v>
-      </c>
-      <c r="W844">
-        <v>0.95</v>
-      </c>
-      <c r="X844">
-        <v>-1</v>
-      </c>
-      <c r="Y844">
-        <v>-1</v>
-      </c>
-      <c r="Z844">
-        <v>1</v>
-      </c>
-      <c r="AA844">
-        <v>-1</v>
-      </c>
-      <c r="AB844">
+      <c r="AC844">
         <v>0.425</v>
-      </c>
-      <c r="AC844">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="845" spans="1:29">
@@ -76920,88 +76920,88 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>6949714</v>
+        <v>6947884</v>
       </c>
       <c r="C858" t="s">
         <v>28</v>
       </c>
       <c r="D858" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E858" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="F858" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G858" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J858" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K858">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L858">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M858">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N858">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O858">
         <v>2.8</v>
       </c>
       <c r="P858">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q858">
         <v>-0.25</v>
       </c>
       <c r="R858">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S858">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T858">
         <v>1.75</v>
       </c>
       <c r="U858">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V858">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W858">
         <v>-1</v>
       </c>
       <c r="X858">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y858">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z858">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA858">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB858">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC858">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="859" spans="1:29">
@@ -77009,88 +77009,88 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>6947884</v>
+        <v>6949714</v>
       </c>
       <c r="C859" t="s">
         <v>28</v>
       </c>
       <c r="D859" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E859" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="F859" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G859" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J859" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K859">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L859">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M859">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N859">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O859">
         <v>2.8</v>
       </c>
       <c r="P859">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q859">
         <v>-0.25</v>
       </c>
       <c r="R859">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S859">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T859">
         <v>1.75</v>
       </c>
       <c r="U859">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V859">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W859">
         <v>-1</v>
       </c>
       <c r="X859">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y859">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z859">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA859">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB859">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC859">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="860" spans="1:29">
@@ -81191,31 +81191,31 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>6947902</v>
+        <v>6947795</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
       </c>
       <c r="D907" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E907" s="2">
         <v>45347.58333333334</v>
       </c>
       <c r="F907" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G907" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K907">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L907">
         <v>3</v>
       </c>
       <c r="M907">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N907">
         <v>2.15</v>
@@ -81224,7 +81224,7 @@
         <v>3</v>
       </c>
       <c r="P907">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q907">
         <v>-0.25</v>
@@ -81239,10 +81239,10 @@
         <v>2</v>
       </c>
       <c r="U907">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V907">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W907">
         <v>0</v>
@@ -81265,31 +81265,31 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>6947795</v>
+        <v>6947902</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
       </c>
       <c r="D908" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E908" s="2">
         <v>45347.58333333334</v>
       </c>
       <c r="F908" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G908" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K908">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L908">
         <v>3</v>
       </c>
       <c r="M908">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N908">
         <v>2.15</v>
@@ -81298,7 +81298,7 @@
         <v>3</v>
       </c>
       <c r="P908">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q908">
         <v>-0.25</v>
@@ -81313,10 +81313,10 @@
         <v>2</v>
       </c>
       <c r="U908">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V908">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W908">
         <v>0</v>

--- a/Spain Primera Division RFEF/Spain Primera Division RFEF.xlsx
+++ b/Spain Primera Division RFEF/Spain Primera Division RFEF.xlsx
@@ -24193,22 +24193,22 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6949580</v>
+        <v>6947737</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E266" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H266">
         <v>3</v>
@@ -24220,43 +24220,43 @@
         <v>72</v>
       </c>
       <c r="K266">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L266">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M266">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N266">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O266">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P266">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q266">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R266">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S266">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U266">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W266">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24265,13 +24265,13 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC266">
         <v>-1</v>
@@ -24282,22 +24282,22 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6947737</v>
+        <v>6949580</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
       </c>
       <c r="D267" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E267" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G267" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24309,43 +24309,43 @@
         <v>72</v>
       </c>
       <c r="K267">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L267">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M267">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N267">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O267">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P267">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q267">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S267">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24354,13 +24354,13 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC267">
         <v>-1</v>
@@ -24549,7 +24549,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6947735</v>
+        <v>6947736</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24561,40 +24561,40 @@
         <v>45256.33333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G270" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K270">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L270">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M270">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N270">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O270">
         <v>3.3</v>
       </c>
       <c r="P270">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R270">
         <v>1.8</v>
@@ -24606,31 +24606,31 @@
         <v>2</v>
       </c>
       <c r="U270">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V270">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z270">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC270">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24638,88 +24638,88 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6949773</v>
+        <v>6947735</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
       </c>
       <c r="D271" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E271" s="2">
         <v>45256.33333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G271" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271">
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K271">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L271">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M271">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N271">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O271">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P271">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q271">
         <v>-0.25</v>
       </c>
       <c r="R271">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S271">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T271">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U271">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W271">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB271">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24727,88 +24727,88 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6947736</v>
+        <v>6949773</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
       </c>
       <c r="D272" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E272" s="2">
         <v>45256.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G272" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J272" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K272">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L272">
         <v>3.2</v>
       </c>
       <c r="M272">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N272">
+        <v>2.25</v>
+      </c>
+      <c r="O272">
+        <v>3.5</v>
+      </c>
+      <c r="P272">
         <v>2.875</v>
       </c>
-      <c r="O272">
-        <v>3.3</v>
-      </c>
-      <c r="P272">
+      <c r="Q272">
+        <v>-0.25</v>
+      </c>
+      <c r="R272">
+        <v>2</v>
+      </c>
+      <c r="S272">
+        <v>1.8</v>
+      </c>
+      <c r="T272">
         <v>2.25</v>
       </c>
-      <c r="Q272">
-        <v>0.25</v>
-      </c>
-      <c r="R272">
-        <v>1.8</v>
-      </c>
-      <c r="S272">
-        <v>2</v>
-      </c>
-      <c r="T272">
-        <v>2</v>
-      </c>
       <c r="U272">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V272">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA272">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC272">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -26418,52 +26418,52 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6947857</v>
+        <v>6949514</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E291" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="F291" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G291" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291">
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K291">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L291">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M291">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N291">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O291">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P291">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q291">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
         <v>1.825</v>
@@ -26472,34 +26472,34 @@
         <v>1.975</v>
       </c>
       <c r="T291">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W291">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X291">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC291">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26507,52 +26507,52 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6949514</v>
+        <v>6947857</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
       </c>
       <c r="D292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E292" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G292" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K292">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L292">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M292">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N292">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O292">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P292">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q292">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R292">
         <v>1.825</v>
@@ -26561,34 +26561,34 @@
         <v>1.975</v>
       </c>
       <c r="T292">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U292">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V292">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X292">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA292">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC292">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26863,88 +26863,88 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6947741</v>
+        <v>6949779</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
       </c>
       <c r="D296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E296" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G296" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K296">
+        <v>2.2</v>
+      </c>
+      <c r="L296">
+        <v>3.1</v>
+      </c>
+      <c r="M296">
+        <v>3</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296">
+        <v>3.2</v>
+      </c>
+      <c r="P296">
+        <v>3.4</v>
+      </c>
+      <c r="Q296">
+        <v>-0.25</v>
+      </c>
+      <c r="R296">
+        <v>1.825</v>
+      </c>
+      <c r="S296">
+        <v>1.975</v>
+      </c>
+      <c r="T296">
+        <v>2</v>
+      </c>
+      <c r="U296">
+        <v>1.9</v>
+      </c>
+      <c r="V296">
+        <v>1.9</v>
+      </c>
+      <c r="W296">
+        <v>-1</v>
+      </c>
+      <c r="X296">
+        <v>-1</v>
+      </c>
+      <c r="Y296">
         <v>2.4</v>
       </c>
-      <c r="L296">
-        <v>3</v>
-      </c>
-      <c r="M296">
-        <v>2.75</v>
-      </c>
-      <c r="N296">
-        <v>2.6</v>
-      </c>
-      <c r="O296">
-        <v>2.8</v>
-      </c>
-      <c r="P296">
-        <v>2.7</v>
-      </c>
-      <c r="Q296">
-        <v>0</v>
-      </c>
-      <c r="R296">
-        <v>1.85</v>
-      </c>
-      <c r="S296">
-        <v>1.95</v>
-      </c>
-      <c r="T296">
-        <v>1.75</v>
-      </c>
-      <c r="U296">
-        <v>1.875</v>
-      </c>
-      <c r="V296">
-        <v>1.925</v>
-      </c>
-      <c r="W296">
-        <v>1.6</v>
-      </c>
-      <c r="X296">
-        <v>-1</v>
-      </c>
-      <c r="Y296">
-        <v>-1</v>
-      </c>
       <c r="Z296">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB296">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26952,88 +26952,88 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6949778</v>
+        <v>6947741</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E297" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G297" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K297">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L297">
         <v>3</v>
       </c>
       <c r="M297">
+        <v>2.75</v>
+      </c>
+      <c r="N297">
         <v>2.6</v>
       </c>
-      <c r="N297">
-        <v>2.45</v>
-      </c>
       <c r="O297">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P297">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q297">
         <v>0</v>
       </c>
       <c r="R297">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S297">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U297">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V297">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA297">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC297">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27041,7 +27041,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6949779</v>
+        <v>6949778</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27053,10 +27053,10 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G298" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -27068,25 +27068,25 @@
         <v>74</v>
       </c>
       <c r="K298">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L298">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M298">
+        <v>2.6</v>
+      </c>
+      <c r="N298">
+        <v>2.45</v>
+      </c>
+      <c r="O298">
         <v>3</v>
       </c>
-      <c r="N298">
-        <v>2</v>
-      </c>
-      <c r="O298">
-        <v>3.2</v>
-      </c>
       <c r="P298">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q298">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R298">
         <v>1.825</v>
@@ -27098,10 +27098,10 @@
         <v>2</v>
       </c>
       <c r="U298">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27110,7 +27110,7 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>2.4</v>
+        <v>1.625</v>
       </c>
       <c r="Z298">
         <v>-1</v>
@@ -27122,7 +27122,7 @@
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27219,61 +27219,61 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6949684</v>
+        <v>6947856</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
       </c>
       <c r="D300" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E300" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G300" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H300">
+        <v>2</v>
+      </c>
+      <c r="I300">
         <v>1</v>
       </c>
-      <c r="I300">
-        <v>2</v>
-      </c>
       <c r="J300" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K300">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L300">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M300">
+        <v>3.75</v>
+      </c>
+      <c r="N300">
+        <v>1.75</v>
+      </c>
+      <c r="O300">
         <v>3.4</v>
       </c>
-      <c r="N300">
-        <v>2.15</v>
-      </c>
-      <c r="O300">
-        <v>2.9</v>
-      </c>
       <c r="P300">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R300">
         <v>1.95</v>
       </c>
       <c r="S300">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T300">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U300">
         <v>1.9</v>
@@ -27282,19 +27282,19 @@
         <v>1.9</v>
       </c>
       <c r="W300">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA300">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB300">
         <v>0.8999999999999999</v>
@@ -27308,61 +27308,61 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6947856</v>
+        <v>6949684</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E301" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G301" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K301">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L301">
+        <v>3.1</v>
+      </c>
+      <c r="M301">
+        <v>3.4</v>
+      </c>
+      <c r="N301">
+        <v>2.15</v>
+      </c>
+      <c r="O301">
+        <v>2.9</v>
+      </c>
+      <c r="P301">
         <v>3.25</v>
       </c>
-      <c r="M301">
-        <v>3.75</v>
-      </c>
-      <c r="N301">
-        <v>1.75</v>
-      </c>
-      <c r="O301">
-        <v>3.4</v>
-      </c>
-      <c r="P301">
-        <v>4</v>
-      </c>
       <c r="Q301">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
         <v>1.95</v>
       </c>
       <c r="S301">
+        <v>1.85</v>
+      </c>
+      <c r="T301">
         <v>1.75</v>
-      </c>
-      <c r="T301">
-        <v>2.25</v>
       </c>
       <c r="U301">
         <v>1.9</v>
@@ -27371,19 +27371,19 @@
         <v>1.9</v>
       </c>
       <c r="W301">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z301">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB301">
         <v>0.8999999999999999</v>
@@ -27753,22 +27753,22 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6947744</v>
+        <v>6947858</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
       </c>
       <c r="D306" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E306" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G306" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H306">
         <v>2</v>
@@ -27780,43 +27780,43 @@
         <v>72</v>
       </c>
       <c r="K306">
+        <v>2.6</v>
+      </c>
+      <c r="L306">
+        <v>3</v>
+      </c>
+      <c r="M306">
+        <v>2.5</v>
+      </c>
+      <c r="N306">
+        <v>3.1</v>
+      </c>
+      <c r="O306">
+        <v>3.2</v>
+      </c>
+      <c r="P306">
         <v>2.1</v>
       </c>
-      <c r="L306">
-        <v>3.1</v>
-      </c>
-      <c r="M306">
-        <v>3.2</v>
-      </c>
-      <c r="N306">
-        <v>2.3</v>
-      </c>
-      <c r="O306">
-        <v>2.9</v>
-      </c>
-      <c r="P306">
-        <v>2.9</v>
-      </c>
       <c r="Q306">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R306">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S306">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T306">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U306">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W306">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27825,16 +27825,16 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA306">
         <v>-1</v>
       </c>
       <c r="AB306">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC306">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27842,22 +27842,22 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6947858</v>
+        <v>6947744</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
       </c>
       <c r="D307" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E307" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G307" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -27869,43 +27869,43 @@
         <v>72</v>
       </c>
       <c r="K307">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L307">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M307">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N307">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="O307">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P307">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q307">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S307">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U307">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V307">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W307">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27914,16 +27914,16 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA307">
         <v>-1</v>
       </c>
       <c r="AB307">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC307">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28198,7 +28198,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6948027</v>
+        <v>6947859</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28210,76 +28210,76 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G311" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K311">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L311">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M311">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N311">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O311">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P311">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q311">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R311">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S311">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T311">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U311">
         <v>1.975</v>
       </c>
       <c r="V311">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X311">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA311">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC311">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28287,7 +28287,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6947859</v>
+        <v>6948027</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28299,76 +28299,76 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G312" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K312">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L312">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M312">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N312">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O312">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P312">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R312">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S312">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T312">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U312">
         <v>1.975</v>
       </c>
       <c r="V312">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W312">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X312">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y312">
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB312">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC312">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -29889,7 +29889,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6949786</v>
+        <v>6949785</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29901,13 +29901,13 @@
         <v>45277.33333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G330" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -29916,34 +29916,34 @@
         <v>72</v>
       </c>
       <c r="K330">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L330">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M330">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N330">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O330">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P330">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R330">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S330">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T330">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U330">
         <v>1.975</v>
@@ -29952,7 +29952,7 @@
         <v>1.825</v>
       </c>
       <c r="W330">
-        <v>1.45</v>
+        <v>0.75</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29961,16 +29961,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29978,7 +29978,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6949785</v>
+        <v>6949786</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29990,13 +29990,13 @@
         <v>45277.33333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G331" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -30005,34 +30005,34 @@
         <v>72</v>
       </c>
       <c r="K331">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L331">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M331">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N331">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P331">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q331">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S331">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T331">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U331">
         <v>1.975</v>
@@ -30041,7 +30041,7 @@
         <v>1.825</v>
       </c>
       <c r="W331">
-        <v>0.75</v>
+        <v>1.45</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -30050,16 +30050,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30690,88 +30690,88 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6949588</v>
+        <v>6947746</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
       </c>
       <c r="D339" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E339" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="F339" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G339" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I339">
         <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K339">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L339">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M339">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N339">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O339">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P339">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q339">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R339">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S339">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T339">
         <v>2.25</v>
       </c>
       <c r="U339">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V339">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W339">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X339">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA339">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC339">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30779,88 +30779,88 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6947746</v>
+        <v>6949588</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
       </c>
       <c r="D340" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E340" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="F340" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G340" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H340">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340">
         <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K340">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L340">
+        <v>3.3</v>
+      </c>
+      <c r="M340">
+        <v>4.2</v>
+      </c>
+      <c r="N340">
+        <v>1.727</v>
+      </c>
+      <c r="O340">
         <v>3.4</v>
       </c>
-      <c r="M340">
-        <v>5.5</v>
-      </c>
-      <c r="N340">
-        <v>1.444</v>
-      </c>
-      <c r="O340">
-        <v>3.8</v>
-      </c>
       <c r="P340">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q340">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R340">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S340">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T340">
         <v>2.25</v>
       </c>
       <c r="U340">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V340">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W340">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X340">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB340">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30957,49 +30957,49 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6949519</v>
+        <v>6949787</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
       </c>
       <c r="D342" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E342" s="2">
         <v>45293.625</v>
       </c>
       <c r="F342" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G342" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J342" t="s">
         <v>74</v>
       </c>
       <c r="K342">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L342">
         <v>3</v>
       </c>
       <c r="M342">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N342">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O342">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P342">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q342">
         <v>-0.25</v>
@@ -31008,10 +31008,10 @@
         <v>2</v>
       </c>
       <c r="S342">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T342">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U342">
         <v>1.9</v>
@@ -31026,19 +31026,19 @@
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Z342">
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB342">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC342">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31046,49 +31046,49 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6949787</v>
+        <v>6949519</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
       </c>
       <c r="D343" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E343" s="2">
         <v>45293.625</v>
       </c>
       <c r="F343" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G343" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J343" t="s">
         <v>74</v>
       </c>
       <c r="K343">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L343">
         <v>3</v>
       </c>
       <c r="M343">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N343">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O343">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P343">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q343">
         <v>-0.25</v>
@@ -31097,10 +31097,10 @@
         <v>2</v>
       </c>
       <c r="S343">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T343">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U343">
         <v>1.9</v>
@@ -31115,19 +31115,19 @@
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB343">
+        <v>-1</v>
+      </c>
+      <c r="AC343">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC343">
-        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31135,7 +31135,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6949589</v>
+        <v>6949591</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31147,76 +31147,76 @@
         <v>45293.70833333334</v>
       </c>
       <c r="F344" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G344" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
         <v>73</v>
       </c>
       <c r="K344">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L344">
         <v>3</v>
       </c>
       <c r="M344">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N344">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O344">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P344">
+        <v>3.1</v>
+      </c>
+      <c r="Q344">
+        <v>-0.25</v>
+      </c>
+      <c r="R344">
         <v>2.05</v>
       </c>
-      <c r="Q344">
-        <v>0.5</v>
-      </c>
-      <c r="R344">
-        <v>1.725</v>
-      </c>
       <c r="S344">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U344">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V344">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W344">
         <v>-1</v>
       </c>
       <c r="X344">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB344">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31224,7 +31224,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6949591</v>
+        <v>6949589</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31236,76 +31236,76 @@
         <v>45293.70833333334</v>
       </c>
       <c r="F345" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G345" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J345" t="s">
         <v>73</v>
       </c>
       <c r="K345">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L345">
         <v>3</v>
       </c>
       <c r="M345">
+        <v>2.3</v>
+      </c>
+      <c r="N345">
         <v>3.3</v>
       </c>
-      <c r="N345">
-        <v>2.375</v>
-      </c>
       <c r="O345">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P345">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q345">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R345">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S345">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T345">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U345">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V345">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W345">
         <v>-1</v>
       </c>
       <c r="X345">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA345">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC345">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -32025,58 +32025,58 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6947868</v>
+        <v>6947753</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E354" s="2">
         <v>45294.70833333334</v>
       </c>
       <c r="F354" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G354" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H354">
         <v>0</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J354" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K354">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="L354">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M354">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N354">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O354">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P354">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q354">
         <v>-0.75</v>
       </c>
       <c r="R354">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S354">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T354">
         <v>2.25</v>
@@ -32085,28 +32085,28 @@
         <v>1.975</v>
       </c>
       <c r="V354">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W354">
         <v>-1</v>
       </c>
       <c r="X354">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z354">
         <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB354">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC354">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32114,58 +32114,58 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6947753</v>
+        <v>6947868</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
       </c>
       <c r="D355" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E355" s="2">
         <v>45294.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G355" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H355">
         <v>0</v>
       </c>
       <c r="I355">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K355">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="L355">
+        <v>3</v>
+      </c>
+      <c r="M355">
+        <v>2.875</v>
+      </c>
+      <c r="N355">
+        <v>1.65</v>
+      </c>
+      <c r="O355">
         <v>3.4</v>
       </c>
-      <c r="M355">
-        <v>4.75</v>
-      </c>
-      <c r="N355">
-        <v>1.7</v>
-      </c>
-      <c r="O355">
-        <v>3.5</v>
-      </c>
       <c r="P355">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q355">
         <v>-0.75</v>
       </c>
       <c r="R355">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S355">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T355">
         <v>2.25</v>
@@ -32174,28 +32174,28 @@
         <v>1.975</v>
       </c>
       <c r="V355">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W355">
         <v>-1</v>
       </c>
       <c r="X355">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y355">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB355">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC355">
-        <v>0.4125</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32292,7 +32292,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7648126</v>
+        <v>6947754</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32304,13 +32304,13 @@
         <v>45295.625</v>
       </c>
       <c r="F357" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G357" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357">
         <v>1</v>
@@ -32319,58 +32319,58 @@
         <v>72</v>
       </c>
       <c r="K357">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L357">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M357">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N357">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O357">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P357">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q357">
+        <v>-0.75</v>
+      </c>
+      <c r="R357">
+        <v>1.8</v>
+      </c>
+      <c r="S357">
+        <v>2</v>
+      </c>
+      <c r="T357">
+        <v>2.25</v>
+      </c>
+      <c r="U357">
+        <v>1.975</v>
+      </c>
+      <c r="V357">
+        <v>1.725</v>
+      </c>
+      <c r="W357">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X357">
+        <v>-1</v>
+      </c>
+      <c r="Y357">
+        <v>-1</v>
+      </c>
+      <c r="Z357">
+        <v>0.4</v>
+      </c>
+      <c r="AA357">
         <v>-0.5</v>
       </c>
-      <c r="R357">
-        <v>2</v>
-      </c>
-      <c r="S357">
-        <v>1.8</v>
-      </c>
-      <c r="T357">
-        <v>2</v>
-      </c>
-      <c r="U357">
-        <v>2</v>
-      </c>
-      <c r="V357">
-        <v>1.8</v>
-      </c>
-      <c r="W357">
-        <v>1</v>
-      </c>
-      <c r="X357">
-        <v>-1</v>
-      </c>
-      <c r="Y357">
-        <v>-1</v>
-      </c>
-      <c r="Z357">
-        <v>1</v>
-      </c>
-      <c r="AA357">
-        <v>-1</v>
-      </c>
       <c r="AB357">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC357">
         <v>-1</v>
@@ -32381,7 +32381,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>6947756</v>
+        <v>7648126</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32393,49 +32393,49 @@
         <v>45295.625</v>
       </c>
       <c r="F358" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G358" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K358">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L358">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M358">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N358">
+        <v>2</v>
+      </c>
+      <c r="O358">
         <v>3.1</v>
       </c>
-      <c r="O358">
-        <v>3.2</v>
-      </c>
       <c r="P358">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q358">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R358">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S358">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T358">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U358">
         <v>2</v>
@@ -32444,25 +32444,25 @@
         <v>1.8</v>
       </c>
       <c r="W358">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X358">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y358">
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA358">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB358">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC358">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32470,7 +32470,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>6947754</v>
+        <v>6947756</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32482,76 +32482,76 @@
         <v>45295.625</v>
       </c>
       <c r="F359" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G359" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J359" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K359">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="L359">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M359">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N359">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O359">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P359">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q359">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R359">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S359">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T359">
         <v>2.25</v>
       </c>
       <c r="U359">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V359">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="W359">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X359">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y359">
         <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
       <c r="AA359">
         <v>-0.5</v>
       </c>
       <c r="AB359">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC359">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32559,85 +32559,85 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6947866</v>
+        <v>6948000</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
       </c>
       <c r="D360" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E360" s="2">
         <v>45295.70833333334</v>
       </c>
       <c r="F360" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G360" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H360">
+        <v>3</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360" t="s">
+        <v>72</v>
+      </c>
+      <c r="K360">
+        <v>2.1</v>
+      </c>
+      <c r="L360">
+        <v>3</v>
+      </c>
+      <c r="M360">
+        <v>3.5</v>
+      </c>
+      <c r="N360">
+        <v>1.6</v>
+      </c>
+      <c r="O360">
+        <v>3.75</v>
+      </c>
+      <c r="P360">
+        <v>5</v>
+      </c>
+      <c r="Q360">
+        <v>-1</v>
+      </c>
+      <c r="R360">
+        <v>2</v>
+      </c>
+      <c r="S360">
+        <v>1.8</v>
+      </c>
+      <c r="T360">
+        <v>2.5</v>
+      </c>
+      <c r="U360">
+        <v>1.95</v>
+      </c>
+      <c r="V360">
+        <v>1.85</v>
+      </c>
+      <c r="W360">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X360">
+        <v>-1</v>
+      </c>
+      <c r="Y360">
+        <v>-1</v>
+      </c>
+      <c r="Z360">
         <v>1</v>
       </c>
-      <c r="I360">
-        <v>2</v>
-      </c>
-      <c r="J360" t="s">
-        <v>74</v>
-      </c>
-      <c r="K360">
-        <v>1.8</v>
-      </c>
-      <c r="L360">
-        <v>3.4</v>
-      </c>
-      <c r="M360">
-        <v>4.2</v>
-      </c>
-      <c r="N360">
-        <v>1.75</v>
-      </c>
-      <c r="O360">
-        <v>3.6</v>
-      </c>
-      <c r="P360">
-        <v>4.2</v>
-      </c>
-      <c r="Q360">
-        <v>-0.5</v>
-      </c>
-      <c r="R360">
-        <v>1.775</v>
-      </c>
-      <c r="S360">
-        <v>2.025</v>
-      </c>
-      <c r="T360">
-        <v>2.25</v>
-      </c>
-      <c r="U360">
-        <v>1.825</v>
-      </c>
-      <c r="V360">
-        <v>1.975</v>
-      </c>
-      <c r="W360">
-        <v>-1</v>
-      </c>
-      <c r="X360">
-        <v>-1</v>
-      </c>
-      <c r="Y360">
-        <v>3.2</v>
-      </c>
-      <c r="Z360">
-        <v>-1</v>
-      </c>
       <c r="AA360">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB360">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC360">
         <v>-1</v>
@@ -32648,85 +32648,85 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6948000</v>
+        <v>6947866</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
       </c>
       <c r="D361" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E361" s="2">
         <v>45295.70833333334</v>
       </c>
       <c r="F361" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G361" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I361">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K361">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L361">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N361">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O361">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P361">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q361">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R361">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S361">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T361">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V361">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z361">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA361">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB361">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC361">
         <v>-1</v>
@@ -33538,7 +33538,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6949791</v>
+        <v>6949793</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33550,49 +33550,49 @@
         <v>45305.33333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G371" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H371">
         <v>0</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K371">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L371">
         <v>2.875</v>
       </c>
       <c r="M371">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N371">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O371">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P371">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q371">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R371">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S371">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T371">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U371">
         <v>2</v>
@@ -33604,22 +33604,22 @@
         <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y371">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA371">
+        <v>-0</v>
+      </c>
+      <c r="AB371">
+        <v>-1</v>
+      </c>
+      <c r="AC371">
         <v>0.8</v>
-      </c>
-      <c r="AB371">
-        <v>0</v>
-      </c>
-      <c r="AC371">
-        <v>-0</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33627,7 +33627,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6949793</v>
+        <v>6949791</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33639,49 +33639,49 @@
         <v>45305.33333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H372">
         <v>0</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J372" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K372">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="L372">
         <v>2.875</v>
       </c>
       <c r="M372">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N372">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O372">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P372">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q372">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R372">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S372">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T372">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U372">
         <v>2</v>
@@ -33693,22 +33693,22 @@
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
+        <v>0.8</v>
+      </c>
+      <c r="AB372">
+        <v>0</v>
+      </c>
+      <c r="AC372">
         <v>-0</v>
-      </c>
-      <c r="AB372">
-        <v>-1</v>
-      </c>
-      <c r="AC372">
-        <v>0.8</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -35763,7 +35763,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7708501</v>
+        <v>6949522</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35775,76 +35775,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G396" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J396" t="s">
         <v>73</v>
       </c>
       <c r="K396">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L396">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M396">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N396">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O396">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P396">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q396">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R396">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S396">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T396">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U396">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V396">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W396">
         <v>-1</v>
       </c>
       <c r="X396">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y396">
         <v>-1</v>
       </c>
       <c r="Z396">
+        <v>-1</v>
+      </c>
+      <c r="AA396">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB396">
         <v>-0.5</v>
       </c>
-      <c r="AA396">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB396">
-        <v>-1</v>
-      </c>
       <c r="AC396">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35852,7 +35852,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>6949522</v>
+        <v>7708501</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35864,76 +35864,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G397" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="s">
         <v>73</v>
       </c>
       <c r="K397">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L397">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M397">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N397">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O397">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P397">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q397">
+        <v>-0.25</v>
+      </c>
+      <c r="R397">
+        <v>1.75</v>
+      </c>
+      <c r="S397">
+        <v>2.05</v>
+      </c>
+      <c r="T397">
+        <v>1.75</v>
+      </c>
+      <c r="U397">
+        <v>1.75</v>
+      </c>
+      <c r="V397">
+        <v>2.05</v>
+      </c>
+      <c r="W397">
+        <v>-1</v>
+      </c>
+      <c r="X397">
+        <v>1.8</v>
+      </c>
+      <c r="Y397">
+        <v>-1</v>
+      </c>
+      <c r="Z397">
         <v>-0.5</v>
       </c>
-      <c r="R397">
-        <v>1.9</v>
-      </c>
-      <c r="S397">
-        <v>1.9</v>
-      </c>
-      <c r="T397">
-        <v>2.25</v>
-      </c>
-      <c r="U397">
-        <v>1.925</v>
-      </c>
-      <c r="V397">
-        <v>1.875</v>
-      </c>
-      <c r="W397">
-        <v>-1</v>
-      </c>
-      <c r="X397">
-        <v>2.2</v>
-      </c>
-      <c r="Y397">
-        <v>-1</v>
-      </c>
-      <c r="Z397">
-        <v>-1</v>
-      </c>
       <c r="AA397">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB397">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC397">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -38700,61 +38700,61 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>6949800</v>
+        <v>6947778</v>
       </c>
       <c r="C429" t="s">
         <v>28</v>
       </c>
       <c r="D429" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E429" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="F429" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G429" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J429" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K429">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L429">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M429">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N429">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O429">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P429">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q429">
         <v>-0.5</v>
       </c>
       <c r="R429">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S429">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T429">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U429">
         <v>1.85</v>
@@ -38763,25 +38763,25 @@
         <v>1.95</v>
       </c>
       <c r="W429">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X429">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y429">
         <v>-1</v>
       </c>
       <c r="Z429">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA429">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB429">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC429">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="430" spans="1:29">
@@ -38789,7 +38789,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>6947880</v>
+        <v>6949603</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38801,13 +38801,13 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F430" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G430" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430">
         <v>0</v>
@@ -38816,43 +38816,43 @@
         <v>72</v>
       </c>
       <c r="K430">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L430">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M430">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N430">
+        <v>1.25</v>
+      </c>
+      <c r="O430">
+        <v>4.75</v>
+      </c>
+      <c r="P430">
+        <v>12</v>
+      </c>
+      <c r="Q430">
+        <v>-1.5</v>
+      </c>
+      <c r="R430">
+        <v>1.9</v>
+      </c>
+      <c r="S430">
+        <v>1.9</v>
+      </c>
+      <c r="T430">
         <v>2.5</v>
       </c>
-      <c r="O430">
-        <v>3.2</v>
-      </c>
-      <c r="P430">
-        <v>2.625</v>
-      </c>
-      <c r="Q430">
-        <v>0</v>
-      </c>
-      <c r="R430">
+      <c r="U430">
+        <v>2</v>
+      </c>
+      <c r="V430">
         <v>1.8</v>
       </c>
-      <c r="S430">
-        <v>2</v>
-      </c>
-      <c r="T430">
-        <v>2.25</v>
-      </c>
-      <c r="U430">
-        <v>1.95</v>
-      </c>
-      <c r="V430">
-        <v>1.85</v>
-      </c>
       <c r="W430">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="X430">
         <v>-1</v>
@@ -38861,16 +38861,16 @@
         <v>-1</v>
       </c>
       <c r="Z430">
+        <v>-1</v>
+      </c>
+      <c r="AA430">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB430">
+        <v>-1</v>
+      </c>
+      <c r="AC430">
         <v>0.8</v>
-      </c>
-      <c r="AA430">
-        <v>-1</v>
-      </c>
-      <c r="AB430">
-        <v>-0.5</v>
-      </c>
-      <c r="AC430">
-        <v>0.425</v>
       </c>
     </row>
     <row r="431" spans="1:29">
@@ -38878,7 +38878,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>6947778</v>
+        <v>7768952</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38890,10 +38890,10 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F431" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G431" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H431">
         <v>1</v>
@@ -38905,61 +38905,61 @@
         <v>73</v>
       </c>
       <c r="K431">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L431">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M431">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="N431">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O431">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P431">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q431">
+        <v>-1.25</v>
+      </c>
+      <c r="R431">
+        <v>2.025</v>
+      </c>
+      <c r="S431">
+        <v>1.775</v>
+      </c>
+      <c r="T431">
+        <v>2.25</v>
+      </c>
+      <c r="U431">
+        <v>1.775</v>
+      </c>
+      <c r="V431">
+        <v>2.025</v>
+      </c>
+      <c r="W431">
+        <v>-1</v>
+      </c>
+      <c r="X431">
+        <v>2.8</v>
+      </c>
+      <c r="Y431">
+        <v>-1</v>
+      </c>
+      <c r="Z431">
+        <v>-1</v>
+      </c>
+      <c r="AA431">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB431">
         <v>-0.5</v>
       </c>
-      <c r="R431">
-        <v>1.9</v>
-      </c>
-      <c r="S431">
-        <v>1.9</v>
-      </c>
-      <c r="T431">
-        <v>2</v>
-      </c>
-      <c r="U431">
-        <v>1.85</v>
-      </c>
-      <c r="V431">
-        <v>1.95</v>
-      </c>
-      <c r="W431">
-        <v>-1</v>
-      </c>
-      <c r="X431">
-        <v>2.1</v>
-      </c>
-      <c r="Y431">
-        <v>-1</v>
-      </c>
-      <c r="Z431">
-        <v>-1</v>
-      </c>
-      <c r="AA431">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB431">
-        <v>0</v>
-      </c>
       <c r="AC431">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="432" spans="1:29">
@@ -38967,7 +38967,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>6949603</v>
+        <v>6949801</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38979,13 +38979,13 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F432" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G432" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I432">
         <v>0</v>
@@ -38994,22 +38994,22 @@
         <v>72</v>
       </c>
       <c r="K432">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L432">
+        <v>3.6</v>
+      </c>
+      <c r="M432">
+        <v>7</v>
+      </c>
+      <c r="N432">
+        <v>1.285</v>
+      </c>
+      <c r="O432">
         <v>4.5</v>
       </c>
-      <c r="M432">
-        <v>11</v>
-      </c>
-      <c r="N432">
-        <v>1.25</v>
-      </c>
-      <c r="O432">
-        <v>4.75</v>
-      </c>
       <c r="P432">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q432">
         <v>-1.5</v>
@@ -39024,13 +39024,13 @@
         <v>2.5</v>
       </c>
       <c r="U432">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V432">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W432">
-        <v>0.25</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -39039,16 +39039,16 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA432">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB432">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC432">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -39056,88 +39056,88 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>7768952</v>
+        <v>6947880</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
       </c>
       <c r="D433" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E433" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="F433" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G433" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J433" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K433">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L433">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M433">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N433">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O433">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P433">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q433">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R433">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S433">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T433">
         <v>2.25</v>
       </c>
       <c r="U433">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V433">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W433">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X433">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y433">
         <v>-1</v>
       </c>
       <c r="Z433">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA433">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB433">
         <v>-0.5</v>
       </c>
       <c r="AC433">
-        <v>0.5125</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39145,7 +39145,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>6949801</v>
+        <v>6949800</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39157,13 +39157,13 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F434" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G434" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434">
         <v>0</v>
@@ -39172,34 +39172,34 @@
         <v>72</v>
       </c>
       <c r="K434">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L434">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M434">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N434">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O434">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="P434">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="Q434">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R434">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S434">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T434">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U434">
         <v>1.85</v>
@@ -39208,7 +39208,7 @@
         <v>1.95</v>
       </c>
       <c r="W434">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X434">
         <v>-1</v>
@@ -39217,16 +39217,16 @@
         <v>-1</v>
       </c>
       <c r="Z434">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA434">
         <v>-1</v>
       </c>
       <c r="AB434">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC434">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39234,7 +39234,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>6947775</v>
+        <v>6947774</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39246,76 +39246,76 @@
         <v>45326.5</v>
       </c>
       <c r="F435" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G435" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J435" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K435">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L435">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M435">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N435">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O435">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P435">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q435">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R435">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S435">
+        <v>1.95</v>
+      </c>
+      <c r="T435">
+        <v>2</v>
+      </c>
+      <c r="U435">
+        <v>2</v>
+      </c>
+      <c r="V435">
         <v>1.8</v>
       </c>
-      <c r="T435">
-        <v>1.75</v>
-      </c>
-      <c r="U435">
-        <v>1.75</v>
-      </c>
-      <c r="V435">
-        <v>2.05</v>
-      </c>
       <c r="W435">
         <v>-1</v>
       </c>
       <c r="X435">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y435">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z435">
         <v>-1</v>
       </c>
       <c r="AA435">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB435">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC435">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="436" spans="1:29">
@@ -39323,7 +39323,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>6947774</v>
+        <v>6947775</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39335,76 +39335,76 @@
         <v>45326.5</v>
       </c>
       <c r="F436" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G436" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J436" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K436">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L436">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M436">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N436">
+        <v>2.75</v>
+      </c>
+      <c r="O436">
+        <v>2.75</v>
+      </c>
+      <c r="P436">
+        <v>2.55</v>
+      </c>
+      <c r="Q436">
+        <v>0</v>
+      </c>
+      <c r="R436">
+        <v>2</v>
+      </c>
+      <c r="S436">
         <v>1.8</v>
       </c>
-      <c r="O436">
-        <v>3.1</v>
-      </c>
-      <c r="P436">
-        <v>4.2</v>
-      </c>
-      <c r="Q436">
+      <c r="T436">
+        <v>1.75</v>
+      </c>
+      <c r="U436">
+        <v>1.75</v>
+      </c>
+      <c r="V436">
+        <v>2.05</v>
+      </c>
+      <c r="W436">
+        <v>-1</v>
+      </c>
+      <c r="X436">
+        <v>-1</v>
+      </c>
+      <c r="Y436">
+        <v>1.55</v>
+      </c>
+      <c r="Z436">
+        <v>-1</v>
+      </c>
+      <c r="AA436">
+        <v>0.8</v>
+      </c>
+      <c r="AB436">
+        <v>0.375</v>
+      </c>
+      <c r="AC436">
         <v>-0.5</v>
-      </c>
-      <c r="R436">
-        <v>1.85</v>
-      </c>
-      <c r="S436">
-        <v>1.95</v>
-      </c>
-      <c r="T436">
-        <v>2</v>
-      </c>
-      <c r="U436">
-        <v>2</v>
-      </c>
-      <c r="V436">
-        <v>1.8</v>
-      </c>
-      <c r="W436">
-        <v>-1</v>
-      </c>
-      <c r="X436">
-        <v>2.1</v>
-      </c>
-      <c r="Y436">
-        <v>-1</v>
-      </c>
-      <c r="Z436">
-        <v>-1</v>
-      </c>
-      <c r="AA436">
-        <v>0.95</v>
-      </c>
-      <c r="AB436">
-        <v>0</v>
-      </c>
-      <c r="AC436">
-        <v>-0</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39412,7 +39412,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>6947882</v>
+        <v>6949602</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39424,73 +39424,73 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F437" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G437" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J437" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K437">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L437">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M437">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N437">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O437">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P437">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q437">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R437">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S437">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T437">
         <v>2</v>
       </c>
       <c r="U437">
+        <v>1.95</v>
+      </c>
+      <c r="V437">
         <v>1.85</v>
       </c>
-      <c r="V437">
-        <v>1.95</v>
-      </c>
       <c r="W437">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X437">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y437">
         <v>-1</v>
       </c>
       <c r="Z437">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA437">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB437">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC437">
         <v>-1</v>
@@ -39501,7 +39501,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>6949602</v>
+        <v>6947882</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39513,73 +39513,73 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F438" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G438" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I438">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J438" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K438">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L438">
+        <v>3</v>
+      </c>
+      <c r="M438">
         <v>3.25</v>
       </c>
-      <c r="M438">
-        <v>5.25</v>
-      </c>
       <c r="N438">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O438">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P438">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q438">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R438">
+        <v>1.775</v>
+      </c>
+      <c r="S438">
+        <v>2.025</v>
+      </c>
+      <c r="T438">
+        <v>2</v>
+      </c>
+      <c r="U438">
+        <v>1.85</v>
+      </c>
+      <c r="V438">
         <v>1.95</v>
       </c>
-      <c r="S438">
-        <v>1.85</v>
-      </c>
-      <c r="T438">
-        <v>2</v>
-      </c>
-      <c r="U438">
-        <v>1.95</v>
-      </c>
-      <c r="V438">
-        <v>1.85</v>
-      </c>
       <c r="W438">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X438">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y438">
         <v>-1</v>
       </c>
       <c r="Z438">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA438">
+        <v>-1</v>
+      </c>
+      <c r="AB438">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB438">
-        <v>0.95</v>
       </c>
       <c r="AC438">
         <v>-1</v>
@@ -41726,7 +41726,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>6949806</v>
+        <v>6947897</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41738,58 +41738,58 @@
         <v>45339.5</v>
       </c>
       <c r="F463" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G463" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J463" t="s">
         <v>72</v>
       </c>
       <c r="K463">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L463">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M463">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N463">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O463">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P463">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q463">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R463">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S463">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T463">
         <v>2</v>
       </c>
       <c r="U463">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V463">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W463">
-        <v>0.8500000000000001</v>
+        <v>2</v>
       </c>
       <c r="X463">
         <v>-1</v>
@@ -41798,13 +41798,13 @@
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA463">
         <v>-1</v>
       </c>
       <c r="AB463">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC463">
         <v>-1</v>
@@ -41815,7 +41815,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6947897</v>
+        <v>6949806</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41827,58 +41827,58 @@
         <v>45339.5</v>
       </c>
       <c r="F464" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G464" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H464">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="s">
         <v>72</v>
       </c>
       <c r="K464">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L464">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M464">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N464">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O464">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P464">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q464">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R464">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S464">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T464">
         <v>2</v>
       </c>
       <c r="U464">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V464">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W464">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X464">
         <v>-1</v>
@@ -41887,13 +41887,13 @@
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA464">
         <v>-1</v>
       </c>
       <c r="AB464">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC464">
         <v>-1</v>
@@ -43862,7 +43862,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>6949725</v>
+        <v>6947798</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43874,40 +43874,40 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F487" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G487" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J487" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K487">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L487">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M487">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N487">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O487">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P487">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q487">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R487">
         <v>2.025</v>
@@ -43925,25 +43925,25 @@
         <v>1.775</v>
       </c>
       <c r="W487">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X487">
         <v>-1</v>
       </c>
       <c r="Y487">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z487">
+        <v>-1</v>
+      </c>
+      <c r="AA487">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB487">
         <v>1.025</v>
       </c>
-      <c r="AA487">
-        <v>-1</v>
-      </c>
-      <c r="AB487">
-        <v>0</v>
-      </c>
       <c r="AC487">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -43951,7 +43951,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>6947798</v>
+        <v>6949725</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43963,40 +43963,40 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F488" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G488" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488" t="s">
+        <v>72</v>
+      </c>
+      <c r="K488">
+        <v>1.909</v>
+      </c>
+      <c r="L488">
         <v>3</v>
       </c>
-      <c r="J488" t="s">
-        <v>74</v>
-      </c>
-      <c r="K488">
-        <v>2.2</v>
-      </c>
-      <c r="L488">
-        <v>2.9</v>
-      </c>
       <c r="M488">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N488">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O488">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P488">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q488">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R488">
         <v>2.025</v>
@@ -44014,25 +44014,25 @@
         <v>1.775</v>
       </c>
       <c r="W488">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X488">
         <v>-1</v>
       </c>
       <c r="Y488">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z488">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA488">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB488">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC488">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -44574,25 +44574,25 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>6949611</v>
+        <v>6949722</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
       </c>
       <c r="D495" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E495" s="2">
         <v>45347.5</v>
       </c>
       <c r="F495" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G495" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495">
         <v>2</v>
@@ -44601,40 +44601,40 @@
         <v>74</v>
       </c>
       <c r="K495">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="L495">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M495">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="N495">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="O495">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P495">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q495">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R495">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S495">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T495">
         <v>2</v>
       </c>
       <c r="U495">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V495">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W495">
         <v>-1</v>
@@ -44643,19 +44643,19 @@
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>1.15</v>
+        <v>4.25</v>
       </c>
       <c r="Z495">
         <v>-1</v>
       </c>
       <c r="AA495">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB495">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC495">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="496" spans="1:29">
@@ -44663,25 +44663,25 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>6949722</v>
+        <v>6949611</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
       </c>
       <c r="D496" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E496" s="2">
         <v>45347.5</v>
       </c>
       <c r="F496" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G496" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -44690,40 +44690,40 @@
         <v>74</v>
       </c>
       <c r="K496">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L496">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M496">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="N496">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O496">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P496">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q496">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R496">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S496">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T496">
         <v>2</v>
       </c>
       <c r="U496">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V496">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W496">
         <v>-1</v>
@@ -44732,19 +44732,19 @@
         <v>-1</v>
       </c>
       <c r="Y496">
-        <v>4.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z496">
         <v>-1</v>
       </c>
       <c r="AA496">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB496">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC496">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497" spans="1:29">
@@ -45553,7 +45553,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6949733</v>
+        <v>6949737</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45565,76 +45565,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F506" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G506" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H506">
         <v>1</v>
       </c>
       <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506" t="s">
+        <v>72</v>
+      </c>
+      <c r="K506">
+        <v>2</v>
+      </c>
+      <c r="L506">
+        <v>3</v>
+      </c>
+      <c r="M506">
+        <v>3.6</v>
+      </c>
+      <c r="N506">
+        <v>2</v>
+      </c>
+      <c r="O506">
+        <v>2.875</v>
+      </c>
+      <c r="P506">
+        <v>3.8</v>
+      </c>
+      <c r="Q506">
+        <v>-0.25</v>
+      </c>
+      <c r="R506">
+        <v>1.75</v>
+      </c>
+      <c r="S506">
+        <v>2.05</v>
+      </c>
+      <c r="T506">
+        <v>2</v>
+      </c>
+      <c r="U506">
+        <v>2</v>
+      </c>
+      <c r="V506">
+        <v>1.8</v>
+      </c>
+      <c r="W506">
         <v>1</v>
       </c>
-      <c r="J506" t="s">
-        <v>73</v>
-      </c>
-      <c r="K506">
-        <v>1.4</v>
-      </c>
-      <c r="L506">
-        <v>3.75</v>
-      </c>
-      <c r="M506">
-        <v>7.5</v>
-      </c>
-      <c r="N506">
-        <v>1.65</v>
-      </c>
-      <c r="O506">
-        <v>3.3</v>
-      </c>
-      <c r="P506">
-        <v>5.25</v>
-      </c>
-      <c r="Q506">
-        <v>-0.75</v>
-      </c>
-      <c r="R506">
-        <v>1.95</v>
-      </c>
-      <c r="S506">
-        <v>1.85</v>
-      </c>
-      <c r="T506">
-        <v>2</v>
-      </c>
-      <c r="U506">
-        <v>1.95</v>
-      </c>
-      <c r="V506">
-        <v>1.85</v>
-      </c>
-      <c r="W506">
-        <v>-1</v>
-      </c>
       <c r="X506">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y506">
         <v>-1</v>
       </c>
       <c r="Z506">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA506">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB506">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC506">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45642,7 +45642,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6949737</v>
+        <v>6949733</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45654,76 +45654,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F507" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G507" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K507">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L507">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M507">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N507">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O507">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P507">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q507">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R507">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S507">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T507">
         <v>2</v>
       </c>
       <c r="U507">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V507">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W507">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X507">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y507">
         <v>-1</v>
       </c>
       <c r="Z507">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA507">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB507">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC507">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -48045,7 +48045,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6949815</v>
+        <v>6947909</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -48057,76 +48057,76 @@
         <v>45361.5</v>
       </c>
       <c r="F534" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G534" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534">
         <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K534">
+        <v>2.75</v>
+      </c>
+      <c r="L534">
+        <v>3</v>
+      </c>
+      <c r="M534">
+        <v>2.4</v>
+      </c>
+      <c r="N534">
+        <v>2.55</v>
+      </c>
+      <c r="O534">
         <v>2.875</v>
       </c>
-      <c r="L534">
-        <v>2.8</v>
-      </c>
-      <c r="M534">
-        <v>2.45</v>
-      </c>
-      <c r="N534">
-        <v>3</v>
-      </c>
-      <c r="O534">
-        <v>3</v>
-      </c>
       <c r="P534">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q534">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R534">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S534">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T534">
         <v>2</v>
       </c>
       <c r="U534">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V534">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W534">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X534">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y534">
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA534">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB534">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC534">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -48134,7 +48134,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>6947909</v>
+        <v>6949815</v>
       </c>
       <c r="C535" t="s">
         <v>28</v>
@@ -48146,76 +48146,76 @@
         <v>45361.5</v>
       </c>
       <c r="F535" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G535" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535">
         <v>0</v>
       </c>
       <c r="J535" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K535">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L535">
+        <v>2.8</v>
+      </c>
+      <c r="M535">
+        <v>2.45</v>
+      </c>
+      <c r="N535">
         <v>3</v>
       </c>
-      <c r="M535">
-        <v>2.4</v>
-      </c>
-      <c r="N535">
-        <v>2.55</v>
-      </c>
       <c r="O535">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P535">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q535">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R535">
+        <v>1.825</v>
+      </c>
+      <c r="S535">
+        <v>1.975</v>
+      </c>
+      <c r="T535">
+        <v>2</v>
+      </c>
+      <c r="U535">
         <v>1.85</v>
       </c>
-      <c r="S535">
+      <c r="V535">
         <v>1.95</v>
       </c>
-      <c r="T535">
-        <v>2</v>
-      </c>
-      <c r="U535">
-        <v>2</v>
-      </c>
-      <c r="V535">
-        <v>1.8</v>
-      </c>
       <c r="W535">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X535">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y535">
         <v>-1</v>
       </c>
       <c r="Z535">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA535">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB535">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC535">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="536" spans="1:29">
@@ -48757,7 +48757,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>6949749</v>
+        <v>7956387</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48769,76 +48769,76 @@
         <v>45367.5</v>
       </c>
       <c r="F542" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G542" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J542" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K542">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L542">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M542">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N542">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O542">
         <v>3</v>
       </c>
       <c r="P542">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q542">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R542">
+        <v>1.85</v>
+      </c>
+      <c r="S542">
+        <v>1.95</v>
+      </c>
+      <c r="T542">
+        <v>2</v>
+      </c>
+      <c r="U542">
         <v>1.9</v>
       </c>
-      <c r="S542">
+      <c r="V542">
         <v>1.9</v>
       </c>
-      <c r="T542">
-        <v>1.75</v>
-      </c>
-      <c r="U542">
-        <v>1.725</v>
-      </c>
-      <c r="V542">
-        <v>1.975</v>
-      </c>
       <c r="W542">
         <v>-1</v>
       </c>
       <c r="X542">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y542">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z542">
         <v>-1</v>
       </c>
       <c r="AA542">
+        <v>0.95</v>
+      </c>
+      <c r="AB542">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB542">
-        <v>-1</v>
-      </c>
       <c r="AC542">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543" spans="1:29">
@@ -48846,7 +48846,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>7956387</v>
+        <v>6949749</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48858,76 +48858,76 @@
         <v>45367.5</v>
       </c>
       <c r="F543" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G543" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J543" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K543">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L543">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M543">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N543">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O543">
         <v>3</v>
       </c>
       <c r="P543">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q543">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R543">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S543">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T543">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U543">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V543">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W543">
         <v>-1</v>
       </c>
       <c r="X543">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y543">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z543">
         <v>-1</v>
       </c>
       <c r="AA543">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB543">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC543">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="544" spans="1:29">
@@ -49736,7 +49736,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>6949621</v>
+        <v>6949817</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -49748,67 +49748,67 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F553" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G553" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553">
         <v>0</v>
       </c>
       <c r="J553" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K553">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L553">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M553">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N553">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O553">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P553">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q553">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R553">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S553">
+        <v>2.025</v>
+      </c>
+      <c r="T553">
+        <v>1.75</v>
+      </c>
+      <c r="U553">
+        <v>1.725</v>
+      </c>
+      <c r="V553">
         <v>1.975</v>
       </c>
-      <c r="T553">
-        <v>2.25</v>
-      </c>
-      <c r="U553">
-        <v>1.975</v>
-      </c>
-      <c r="V553">
-        <v>1.825</v>
-      </c>
       <c r="W553">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X553">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y553">
         <v>-1</v>
       </c>
       <c r="Z553">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AA553">
         <v>-0.5</v>
@@ -49817,7 +49817,7 @@
         <v>-1</v>
       </c>
       <c r="AC553">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="554" spans="1:29">
@@ -49825,7 +49825,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>6949622</v>
+        <v>6947935</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -49837,40 +49837,40 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F554" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G554" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H554">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I554">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J554" t="s">
         <v>72</v>
       </c>
       <c r="K554">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L554">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M554">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N554">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O554">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P554">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q554">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R554">
         <v>1.8</v>
@@ -49879,16 +49879,16 @@
         <v>2</v>
       </c>
       <c r="T554">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U554">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V554">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W554">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X554">
         <v>-1</v>
@@ -49903,7 +49903,7 @@
         <v>-1</v>
       </c>
       <c r="AB554">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC554">
         <v>-1</v>
@@ -49914,7 +49914,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>6949817</v>
+        <v>6949621</v>
       </c>
       <c r="C555" t="s">
         <v>28</v>
@@ -49926,67 +49926,67 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F555" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G555" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I555">
         <v>0</v>
       </c>
       <c r="J555" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K555">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L555">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M555">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N555">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O555">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P555">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q555">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R555">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S555">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T555">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U555">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V555">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W555">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X555">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y555">
         <v>-1</v>
       </c>
       <c r="Z555">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA555">
         <v>-0.5</v>
@@ -49995,7 +49995,7 @@
         <v>-1</v>
       </c>
       <c r="AC555">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="556" spans="1:29">
@@ -50003,7 +50003,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>6947935</v>
+        <v>6949622</v>
       </c>
       <c r="C556" t="s">
         <v>28</v>
@@ -50015,40 +50015,40 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F556" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G556" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H556">
+        <v>4</v>
+      </c>
+      <c r="I556">
         <v>3</v>
-      </c>
-      <c r="I556">
-        <v>0</v>
       </c>
       <c r="J556" t="s">
         <v>72</v>
       </c>
       <c r="K556">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L556">
+        <v>3.3</v>
+      </c>
+      <c r="M556">
+        <v>2.9</v>
+      </c>
+      <c r="N556">
+        <v>2.05</v>
+      </c>
+      <c r="O556">
         <v>3</v>
       </c>
-      <c r="M556">
-        <v>3.4</v>
-      </c>
-      <c r="N556">
-        <v>1.75</v>
-      </c>
-      <c r="O556">
-        <v>3.2</v>
-      </c>
       <c r="P556">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q556">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R556">
         <v>1.8</v>
@@ -50057,16 +50057,16 @@
         <v>2</v>
       </c>
       <c r="T556">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U556">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V556">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W556">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X556">
         <v>-1</v>
@@ -50081,7 +50081,7 @@
         <v>-1</v>
       </c>
       <c r="AB556">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC556">
         <v>-1</v>
@@ -50537,88 +50537,88 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>6948943</v>
+        <v>6947940</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
       </c>
       <c r="D562" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E562" s="2">
         <v>45374.5</v>
       </c>
       <c r="F562" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G562" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562">
         <v>1</v>
       </c>
       <c r="J562" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K562">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L562">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M562">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N562">
+        <v>2.4</v>
+      </c>
+      <c r="O562">
+        <v>2.75</v>
+      </c>
+      <c r="P562">
         <v>3</v>
       </c>
-      <c r="O562">
-        <v>3.25</v>
-      </c>
-      <c r="P562">
-        <v>2.1</v>
-      </c>
       <c r="Q562">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R562">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S562">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T562">
         <v>2</v>
       </c>
       <c r="U562">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V562">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W562">
         <v>-1</v>
       </c>
       <c r="X562">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y562">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z562">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA562">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB562">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC562">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -50626,88 +50626,88 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6947940</v>
+        <v>6948944</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
       </c>
       <c r="D563" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E563" s="2">
         <v>45374.5</v>
       </c>
       <c r="F563" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G563" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J563" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K563">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L563">
         <v>3.25</v>
       </c>
       <c r="M563">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N563">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O563">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P563">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q563">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R563">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S563">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T563">
         <v>2</v>
       </c>
       <c r="U563">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V563">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W563">
         <v>-1</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y563">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z563">
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB563">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC563">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50715,7 +50715,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>6948944</v>
+        <v>6948943</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50727,76 +50727,76 @@
         <v>45374.5</v>
       </c>
       <c r="F564" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G564" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J564" t="s">
         <v>73</v>
       </c>
       <c r="K564">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L564">
+        <v>3.2</v>
+      </c>
+      <c r="M564">
+        <v>2.5</v>
+      </c>
+      <c r="N564">
+        <v>3</v>
+      </c>
+      <c r="O564">
         <v>3.25</v>
       </c>
-      <c r="M564">
-        <v>3.25</v>
-      </c>
-      <c r="N564">
-        <v>1.727</v>
-      </c>
-      <c r="O564">
-        <v>3.2</v>
-      </c>
       <c r="P564">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q564">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R564">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S564">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T564">
         <v>2</v>
       </c>
       <c r="U564">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V564">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W564">
         <v>-1</v>
       </c>
       <c r="X564">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y564">
         <v>-1</v>
       </c>
       <c r="Z564">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA564">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB564">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC564">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -51338,7 +51338,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6949623</v>
+        <v>6947937</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51350,76 +51350,76 @@
         <v>45375.33333333334</v>
       </c>
       <c r="F571" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G571" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H571">
         <v>1</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K571">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="L571">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M571">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N571">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O571">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P571">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q571">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R571">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S571">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T571">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U571">
+        <v>1.775</v>
+      </c>
+      <c r="V571">
         <v>2.025</v>
       </c>
-      <c r="V571">
-        <v>1.775</v>
-      </c>
       <c r="W571">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X571">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB571">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC571">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51427,7 +51427,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6947937</v>
+        <v>6949623</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51439,76 +51439,76 @@
         <v>45375.33333333334</v>
       </c>
       <c r="F572" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G572" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H572">
         <v>1</v>
       </c>
       <c r="I572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K572">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="L572">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M572">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N572">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O572">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P572">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q572">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R572">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S572">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T572">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U572">
+        <v>2.025</v>
+      </c>
+      <c r="V572">
         <v>1.775</v>
       </c>
-      <c r="V572">
-        <v>2.025</v>
-      </c>
       <c r="W572">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X572">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA572">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB572">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC572">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="573" spans="1:29">

--- a/Spain Primera Division RFEF/Spain Primera Division RFEF.xlsx
+++ b/Spain Primera Division RFEF/Spain Primera Division RFEF.xlsx
@@ -24193,22 +24193,22 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6947737</v>
+        <v>6949580</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
       </c>
       <c r="D266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E266" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G266" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H266">
         <v>3</v>
@@ -24220,43 +24220,43 @@
         <v>72</v>
       </c>
       <c r="K266">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L266">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M266">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N266">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O266">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P266">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q266">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R266">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S266">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T266">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U266">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V266">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W266">
-        <v>1.6</v>
+        <v>0.833</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24265,13 +24265,13 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC266">
         <v>-1</v>
@@ -24282,22 +24282,22 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6949580</v>
+        <v>6947737</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E267" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -24309,43 +24309,43 @@
         <v>72</v>
       </c>
       <c r="K267">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L267">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M267">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N267">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O267">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P267">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q267">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R267">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S267">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T267">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W267">
-        <v>0.833</v>
+        <v>1.6</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24354,13 +24354,13 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC267">
         <v>-1</v>
@@ -24549,7 +24549,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6947736</v>
+        <v>6947735</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24561,40 +24561,40 @@
         <v>45256.33333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G270" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
       <c r="I270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K270">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L270">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M270">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N270">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O270">
         <v>3.3</v>
       </c>
       <c r="P270">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q270">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R270">
         <v>1.8</v>
@@ -24606,31 +24606,31 @@
         <v>2</v>
       </c>
       <c r="U270">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V270">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W270">
         <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y270">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA270">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB270">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24638,88 +24638,88 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6947735</v>
+        <v>6949773</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
       </c>
       <c r="D271" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E271" s="2">
         <v>45256.33333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G271" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271">
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K271">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L271">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M271">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N271">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O271">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P271">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q271">
         <v>-0.25</v>
       </c>
       <c r="R271">
+        <v>2</v>
+      </c>
+      <c r="S271">
         <v>1.8</v>
       </c>
-      <c r="S271">
-        <v>2</v>
-      </c>
       <c r="T271">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U271">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V271">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X271">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
+        <v>1</v>
+      </c>
+      <c r="AA271">
+        <v>-1</v>
+      </c>
+      <c r="AB271">
         <v>-0.5</v>
       </c>
-      <c r="AA271">
-        <v>0.5</v>
-      </c>
-      <c r="AB271">
-        <v>-1</v>
-      </c>
       <c r="AC271">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24727,88 +24727,88 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6949773</v>
+        <v>6947736</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
       </c>
       <c r="D272" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E272" s="2">
         <v>45256.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G272" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J272" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K272">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L272">
         <v>3.2</v>
       </c>
       <c r="M272">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N272">
+        <v>2.875</v>
+      </c>
+      <c r="O272">
+        <v>3.3</v>
+      </c>
+      <c r="P272">
         <v>2.25</v>
       </c>
-      <c r="O272">
-        <v>3.5</v>
-      </c>
-      <c r="P272">
-        <v>2.875</v>
-      </c>
       <c r="Q272">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R272">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S272">
+        <v>2</v>
+      </c>
+      <c r="T272">
+        <v>2</v>
+      </c>
+      <c r="U272">
         <v>1.8</v>
       </c>
-      <c r="T272">
-        <v>2.25</v>
-      </c>
-      <c r="U272">
-        <v>1.875</v>
-      </c>
       <c r="V272">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W272">
+        <v>-1</v>
+      </c>
+      <c r="X272">
+        <v>-1</v>
+      </c>
+      <c r="Y272">
         <v>1.25</v>
       </c>
-      <c r="X272">
-        <v>-1</v>
-      </c>
-      <c r="Y272">
-        <v>-1</v>
-      </c>
       <c r="Z272">
+        <v>-1</v>
+      </c>
+      <c r="AA272">
         <v>1</v>
       </c>
-      <c r="AA272">
-        <v>-1</v>
-      </c>
       <c r="AB272">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC272">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -26418,52 +26418,52 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6949514</v>
+        <v>6947857</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
       </c>
       <c r="D291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E291" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="F291" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G291" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291">
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K291">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L291">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M291">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N291">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O291">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P291">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="Q291">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R291">
         <v>1.825</v>
@@ -26472,34 +26472,34 @@
         <v>1.975</v>
       </c>
       <c r="T291">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U291">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V291">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X291">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y291">
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA291">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC291">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26507,52 +26507,52 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6947857</v>
+        <v>6949514</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
       </c>
       <c r="D292" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E292" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G292" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K292">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L292">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M292">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N292">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O292">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P292">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q292">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
         <v>1.825</v>
@@ -26561,34 +26561,34 @@
         <v>1.975</v>
       </c>
       <c r="T292">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U292">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V292">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W292">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y292">
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB292">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26863,88 +26863,88 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6949779</v>
+        <v>6947741</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E296" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G296" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K296">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L296">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M296">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N296">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O296">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P296">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q296">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S296">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X296">
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA296">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC296">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26952,88 +26952,88 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6947741</v>
+        <v>6949778</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
       </c>
       <c r="D297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E297" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G297" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K297">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L297">
         <v>3</v>
       </c>
       <c r="M297">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N297">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O297">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P297">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q297">
         <v>0</v>
       </c>
       <c r="R297">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T297">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U297">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W297">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z297">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB297">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27041,7 +27041,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6949778</v>
+        <v>6949779</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27053,10 +27053,10 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G298" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -27068,25 +27068,25 @@
         <v>74</v>
       </c>
       <c r="K298">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L298">
+        <v>3.1</v>
+      </c>
+      <c r="M298">
         <v>3</v>
       </c>
-      <c r="M298">
-        <v>2.6</v>
-      </c>
       <c r="N298">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="O298">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P298">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="Q298">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
         <v>1.825</v>
@@ -27098,10 +27098,10 @@
         <v>2</v>
       </c>
       <c r="U298">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V298">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27110,7 +27110,7 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>1.625</v>
+        <v>2.4</v>
       </c>
       <c r="Z298">
         <v>-1</v>
@@ -27122,7 +27122,7 @@
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27219,61 +27219,61 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6947856</v>
+        <v>6949684</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
       </c>
       <c r="D300" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E300" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G300" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K300">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L300">
+        <v>3.1</v>
+      </c>
+      <c r="M300">
+        <v>3.4</v>
+      </c>
+      <c r="N300">
+        <v>2.15</v>
+      </c>
+      <c r="O300">
+        <v>2.9</v>
+      </c>
+      <c r="P300">
         <v>3.25</v>
       </c>
-      <c r="M300">
-        <v>3.75</v>
-      </c>
-      <c r="N300">
-        <v>1.75</v>
-      </c>
-      <c r="O300">
-        <v>3.4</v>
-      </c>
-      <c r="P300">
-        <v>4</v>
-      </c>
       <c r="Q300">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R300">
         <v>1.95</v>
       </c>
       <c r="S300">
+        <v>1.85</v>
+      </c>
+      <c r="T300">
         <v>1.75</v>
-      </c>
-      <c r="T300">
-        <v>2.25</v>
       </c>
       <c r="U300">
         <v>1.9</v>
@@ -27282,19 +27282,19 @@
         <v>1.9</v>
       </c>
       <c r="W300">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z300">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB300">
         <v>0.8999999999999999</v>
@@ -27308,61 +27308,61 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6949684</v>
+        <v>6947856</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
       </c>
       <c r="D301" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E301" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G301" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H301">
+        <v>2</v>
+      </c>
+      <c r="I301">
         <v>1</v>
       </c>
-      <c r="I301">
-        <v>2</v>
-      </c>
       <c r="J301" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K301">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L301">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M301">
+        <v>3.75</v>
+      </c>
+      <c r="N301">
+        <v>1.75</v>
+      </c>
+      <c r="O301">
         <v>3.4</v>
       </c>
-      <c r="N301">
-        <v>2.15</v>
-      </c>
-      <c r="O301">
-        <v>2.9</v>
-      </c>
       <c r="P301">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
         <v>1.95</v>
       </c>
       <c r="S301">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T301">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U301">
         <v>1.9</v>
@@ -27371,19 +27371,19 @@
         <v>1.9</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA301">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB301">
         <v>0.8999999999999999</v>
@@ -27753,22 +27753,22 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6947858</v>
+        <v>6947744</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E306" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G306" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H306">
         <v>2</v>
@@ -27780,43 +27780,43 @@
         <v>72</v>
       </c>
       <c r="K306">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L306">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M306">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N306">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="O306">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P306">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q306">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S306">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T306">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U306">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V306">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="X306">
         <v>-1</v>
@@ -27825,16 +27825,16 @@
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA306">
         <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC306">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27842,22 +27842,22 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6947744</v>
+        <v>6947858</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
       </c>
       <c r="D307" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E307" s="2">
         <v>45269.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G307" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -27869,43 +27869,43 @@
         <v>72</v>
       </c>
       <c r="K307">
+        <v>2.6</v>
+      </c>
+      <c r="L307">
+        <v>3</v>
+      </c>
+      <c r="M307">
+        <v>2.5</v>
+      </c>
+      <c r="N307">
+        <v>3.1</v>
+      </c>
+      <c r="O307">
+        <v>3.2</v>
+      </c>
+      <c r="P307">
         <v>2.1</v>
       </c>
-      <c r="L307">
-        <v>3.1</v>
-      </c>
-      <c r="M307">
-        <v>3.2</v>
-      </c>
-      <c r="N307">
-        <v>2.3</v>
-      </c>
-      <c r="O307">
-        <v>2.9</v>
-      </c>
-      <c r="P307">
-        <v>2.9</v>
-      </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R307">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S307">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T307">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W307">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27914,16 +27914,16 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA307">
         <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC307">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28198,7 +28198,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6947859</v>
+        <v>6948027</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28210,76 +28210,76 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K311">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L311">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M311">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N311">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O311">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P311">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R311">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S311">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T311">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U311">
         <v>1.975</v>
       </c>
       <c r="V311">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W311">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB311">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28287,7 +28287,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6948027</v>
+        <v>6947859</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28299,76 +28299,76 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G312" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K312">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L312">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M312">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N312">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O312">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P312">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q312">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R312">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S312">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T312">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U312">
         <v>1.975</v>
       </c>
       <c r="V312">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W312">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X312">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA312">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB312">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC312">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -29889,7 +29889,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6949785</v>
+        <v>6949786</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29901,13 +29901,13 @@
         <v>45277.33333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G330" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H330">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -29916,34 +29916,34 @@
         <v>72</v>
       </c>
       <c r="K330">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="L330">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M330">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N330">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O330">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P330">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q330">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S330">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T330">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U330">
         <v>1.975</v>
@@ -29952,7 +29952,7 @@
         <v>1.825</v>
       </c>
       <c r="W330">
-        <v>0.75</v>
+        <v>1.45</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29961,16 +29961,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29978,7 +29978,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6949786</v>
+        <v>6949785</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29990,13 +29990,13 @@
         <v>45277.33333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G331" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -30005,34 +30005,34 @@
         <v>72</v>
       </c>
       <c r="K331">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="L331">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M331">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N331">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O331">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R331">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S331">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
         <v>1.975</v>
@@ -30041,7 +30041,7 @@
         <v>1.825</v>
       </c>
       <c r="W331">
-        <v>1.45</v>
+        <v>0.75</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -30050,16 +30050,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA331">
         <v>-1</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC331">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30690,88 +30690,88 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6947746</v>
+        <v>6949588</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
       </c>
       <c r="D339" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E339" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="F339" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G339" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H339">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339">
         <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K339">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L339">
+        <v>3.3</v>
+      </c>
+      <c r="M339">
+        <v>4.2</v>
+      </c>
+      <c r="N339">
+        <v>1.727</v>
+      </c>
+      <c r="O339">
         <v>3.4</v>
       </c>
-      <c r="M339">
-        <v>5.5</v>
-      </c>
-      <c r="N339">
-        <v>1.444</v>
-      </c>
-      <c r="O339">
-        <v>3.8</v>
-      </c>
       <c r="P339">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="Q339">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R339">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S339">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T339">
         <v>2.25</v>
       </c>
       <c r="U339">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V339">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W339">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X339">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y339">
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA339">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB339">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30779,88 +30779,88 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6949588</v>
+        <v>6947746</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
       </c>
       <c r="D340" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E340" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="F340" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G340" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I340">
         <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K340">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L340">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M340">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N340">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O340">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P340">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q340">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R340">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S340">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T340">
         <v>2.25</v>
       </c>
       <c r="U340">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V340">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W340">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X340">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA340">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC340">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30957,49 +30957,49 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>6949787</v>
+        <v>6949519</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
       </c>
       <c r="D342" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E342" s="2">
         <v>45293.625</v>
       </c>
       <c r="F342" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G342" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J342" t="s">
         <v>74</v>
       </c>
       <c r="K342">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L342">
         <v>3</v>
       </c>
       <c r="M342">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N342">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O342">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P342">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q342">
         <v>-0.25</v>
@@ -31008,10 +31008,10 @@
         <v>2</v>
       </c>
       <c r="S342">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T342">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U342">
         <v>1.9</v>
@@ -31026,19 +31026,19 @@
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z342">
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB342">
+        <v>-1</v>
+      </c>
+      <c r="AC342">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC342">
-        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31046,49 +31046,49 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>6949519</v>
+        <v>6949787</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
       </c>
       <c r="D343" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E343" s="2">
         <v>45293.625</v>
       </c>
       <c r="F343" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G343" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J343" t="s">
         <v>74</v>
       </c>
       <c r="K343">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L343">
         <v>3</v>
       </c>
       <c r="M343">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N343">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O343">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P343">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q343">
         <v>-0.25</v>
@@ -31097,10 +31097,10 @@
         <v>2</v>
       </c>
       <c r="S343">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T343">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U343">
         <v>1.9</v>
@@ -31115,19 +31115,19 @@
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB343">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC343">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:29">
@@ -31135,7 +31135,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6949591</v>
+        <v>6949589</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31147,76 +31147,76 @@
         <v>45293.70833333334</v>
       </c>
       <c r="F344" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G344" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J344" t="s">
         <v>73</v>
       </c>
       <c r="K344">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L344">
         <v>3</v>
       </c>
       <c r="M344">
+        <v>2.3</v>
+      </c>
+      <c r="N344">
         <v>3.3</v>
       </c>
-      <c r="N344">
-        <v>2.375</v>
-      </c>
       <c r="O344">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P344">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q344">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R344">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S344">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T344">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U344">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V344">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W344">
         <v>-1</v>
       </c>
       <c r="X344">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA344">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC344">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31224,7 +31224,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6949589</v>
+        <v>6949591</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31236,76 +31236,76 @@
         <v>45293.70833333334</v>
       </c>
       <c r="F345" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G345" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
         <v>73</v>
       </c>
       <c r="K345">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L345">
         <v>3</v>
       </c>
       <c r="M345">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N345">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O345">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P345">
+        <v>3.1</v>
+      </c>
+      <c r="Q345">
+        <v>-0.25</v>
+      </c>
+      <c r="R345">
         <v>2.05</v>
       </c>
-      <c r="Q345">
-        <v>0.5</v>
-      </c>
-      <c r="R345">
-        <v>1.725</v>
-      </c>
       <c r="S345">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T345">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U345">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V345">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W345">
         <v>-1</v>
       </c>
       <c r="X345">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB345">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -32025,58 +32025,58 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6947753</v>
+        <v>6947868</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
       </c>
       <c r="D354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E354" s="2">
         <v>45294.70833333334</v>
       </c>
       <c r="F354" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G354" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H354">
         <v>0</v>
       </c>
       <c r="I354">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J354" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K354">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="L354">
+        <v>3</v>
+      </c>
+      <c r="M354">
+        <v>2.875</v>
+      </c>
+      <c r="N354">
+        <v>1.65</v>
+      </c>
+      <c r="O354">
         <v>3.4</v>
       </c>
-      <c r="M354">
-        <v>4.75</v>
-      </c>
-      <c r="N354">
-        <v>1.7</v>
-      </c>
-      <c r="O354">
-        <v>3.5</v>
-      </c>
       <c r="P354">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q354">
         <v>-0.75</v>
       </c>
       <c r="R354">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S354">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T354">
         <v>2.25</v>
@@ -32085,28 +32085,28 @@
         <v>1.975</v>
       </c>
       <c r="V354">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W354">
         <v>-1</v>
       </c>
       <c r="X354">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y354">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z354">
         <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB354">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC354">
-        <v>0.4125</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32114,58 +32114,58 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6947868</v>
+        <v>6947753</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E355" s="2">
         <v>45294.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G355" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H355">
         <v>0</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J355" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K355">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="L355">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M355">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N355">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O355">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P355">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q355">
         <v>-0.75</v>
       </c>
       <c r="R355">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S355">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T355">
         <v>2.25</v>
@@ -32174,28 +32174,28 @@
         <v>1.975</v>
       </c>
       <c r="V355">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W355">
         <v>-1</v>
       </c>
       <c r="X355">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC355">
-        <v>0.7250000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32292,7 +32292,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6947754</v>
+        <v>7648126</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32304,13 +32304,13 @@
         <v>45295.625</v>
       </c>
       <c r="F357" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G357" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I357">
         <v>1</v>
@@ -32319,43 +32319,43 @@
         <v>72</v>
       </c>
       <c r="K357">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="L357">
+        <v>3.1</v>
+      </c>
+      <c r="M357">
+        <v>2.9</v>
+      </c>
+      <c r="N357">
+        <v>2</v>
+      </c>
+      <c r="O357">
+        <v>3.1</v>
+      </c>
+      <c r="P357">
         <v>3.6</v>
       </c>
-      <c r="M357">
-        <v>4.5</v>
-      </c>
-      <c r="N357">
-        <v>1.65</v>
-      </c>
-      <c r="O357">
-        <v>3.75</v>
-      </c>
-      <c r="P357">
-        <v>4.5</v>
-      </c>
       <c r="Q357">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R357">
+        <v>2</v>
+      </c>
+      <c r="S357">
         <v>1.8</v>
       </c>
-      <c r="S357">
-        <v>2</v>
-      </c>
       <c r="T357">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U357">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V357">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="W357">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X357">
         <v>-1</v>
@@ -32364,13 +32364,13 @@
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA357">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB357">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC357">
         <v>-1</v>
@@ -32381,7 +32381,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>7648126</v>
+        <v>6947756</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32393,49 +32393,49 @@
         <v>45295.625</v>
       </c>
       <c r="F358" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G358" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358" t="s">
+        <v>73</v>
+      </c>
+      <c r="K358">
+        <v>2.625</v>
+      </c>
+      <c r="L358">
         <v>3</v>
       </c>
-      <c r="I358">
-        <v>1</v>
-      </c>
-      <c r="J358" t="s">
-        <v>72</v>
-      </c>
-      <c r="K358">
-        <v>2.375</v>
-      </c>
-      <c r="L358">
+      <c r="M358">
+        <v>2.625</v>
+      </c>
+      <c r="N358">
         <v>3.1</v>
       </c>
-      <c r="M358">
-        <v>2.9</v>
-      </c>
-      <c r="N358">
-        <v>2</v>
-      </c>
       <c r="O358">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P358">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q358">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R358">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S358">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T358">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U358">
         <v>2</v>
@@ -32444,25 +32444,25 @@
         <v>1.8</v>
       </c>
       <c r="W358">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X358">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y358">
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA358">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB358">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -32470,7 +32470,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>6947756</v>
+        <v>6947754</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32482,76 +32482,76 @@
         <v>45295.625</v>
       </c>
       <c r="F359" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G359" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J359" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K359">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="L359">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M359">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N359">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O359">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P359">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q359">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R359">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S359">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T359">
         <v>2.25</v>
       </c>
       <c r="U359">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V359">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="W359">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X359">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
         <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
       <c r="AA359">
         <v>-0.5</v>
       </c>
       <c r="AB359">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC359">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32559,85 +32559,85 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6948000</v>
+        <v>6947866</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
       </c>
       <c r="D360" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E360" s="2">
         <v>45295.70833333334</v>
       </c>
       <c r="F360" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G360" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K360">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L360">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M360">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N360">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O360">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P360">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q360">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R360">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S360">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T360">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U360">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V360">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z360">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB360">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC360">
         <v>-1</v>
@@ -32648,85 +32648,85 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6947866</v>
+        <v>6948000</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E361" s="2">
         <v>45295.70833333334</v>
       </c>
       <c r="F361" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G361" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H361">
+        <v>3</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361" t="s">
+        <v>72</v>
+      </c>
+      <c r="K361">
+        <v>2.1</v>
+      </c>
+      <c r="L361">
+        <v>3</v>
+      </c>
+      <c r="M361">
+        <v>3.5</v>
+      </c>
+      <c r="N361">
+        <v>1.6</v>
+      </c>
+      <c r="O361">
+        <v>3.75</v>
+      </c>
+      <c r="P361">
+        <v>5</v>
+      </c>
+      <c r="Q361">
+        <v>-1</v>
+      </c>
+      <c r="R361">
+        <v>2</v>
+      </c>
+      <c r="S361">
+        <v>1.8</v>
+      </c>
+      <c r="T361">
+        <v>2.5</v>
+      </c>
+      <c r="U361">
+        <v>1.95</v>
+      </c>
+      <c r="V361">
+        <v>1.85</v>
+      </c>
+      <c r="W361">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X361">
+        <v>-1</v>
+      </c>
+      <c r="Y361">
+        <v>-1</v>
+      </c>
+      <c r="Z361">
         <v>1</v>
       </c>
-      <c r="I361">
-        <v>2</v>
-      </c>
-      <c r="J361" t="s">
-        <v>74</v>
-      </c>
-      <c r="K361">
-        <v>1.8</v>
-      </c>
-      <c r="L361">
-        <v>3.4</v>
-      </c>
-      <c r="M361">
-        <v>4.2</v>
-      </c>
-      <c r="N361">
-        <v>1.75</v>
-      </c>
-      <c r="O361">
-        <v>3.6</v>
-      </c>
-      <c r="P361">
-        <v>4.2</v>
-      </c>
-      <c r="Q361">
-        <v>-0.5</v>
-      </c>
-      <c r="R361">
-        <v>1.775</v>
-      </c>
-      <c r="S361">
-        <v>2.025</v>
-      </c>
-      <c r="T361">
-        <v>2.25</v>
-      </c>
-      <c r="U361">
-        <v>1.825</v>
-      </c>
-      <c r="V361">
-        <v>1.975</v>
-      </c>
-      <c r="W361">
-        <v>-1</v>
-      </c>
-      <c r="X361">
-        <v>-1</v>
-      </c>
-      <c r="Y361">
-        <v>3.2</v>
-      </c>
-      <c r="Z361">
-        <v>-1</v>
-      </c>
       <c r="AA361">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC361">
         <v>-1</v>
@@ -35763,7 +35763,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>6949522</v>
+        <v>7708501</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35775,76 +35775,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F396" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G396" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396" t="s">
         <v>73</v>
       </c>
       <c r="K396">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L396">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M396">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N396">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O396">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P396">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q396">
+        <v>-0.25</v>
+      </c>
+      <c r="R396">
+        <v>1.75</v>
+      </c>
+      <c r="S396">
+        <v>2.05</v>
+      </c>
+      <c r="T396">
+        <v>1.75</v>
+      </c>
+      <c r="U396">
+        <v>1.75</v>
+      </c>
+      <c r="V396">
+        <v>2.05</v>
+      </c>
+      <c r="W396">
+        <v>-1</v>
+      </c>
+      <c r="X396">
+        <v>1.8</v>
+      </c>
+      <c r="Y396">
+        <v>-1</v>
+      </c>
+      <c r="Z396">
         <v>-0.5</v>
       </c>
-      <c r="R396">
-        <v>1.9</v>
-      </c>
-      <c r="S396">
-        <v>1.9</v>
-      </c>
-      <c r="T396">
-        <v>2.25</v>
-      </c>
-      <c r="U396">
-        <v>1.925</v>
-      </c>
-      <c r="V396">
-        <v>1.875</v>
-      </c>
-      <c r="W396">
-        <v>-1</v>
-      </c>
-      <c r="X396">
-        <v>2.2</v>
-      </c>
-      <c r="Y396">
-        <v>-1</v>
-      </c>
-      <c r="Z396">
-        <v>-1</v>
-      </c>
       <c r="AA396">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35852,7 +35852,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7708501</v>
+        <v>6949522</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35864,76 +35864,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G397" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="s">
         <v>73</v>
       </c>
       <c r="K397">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L397">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M397">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N397">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O397">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P397">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q397">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R397">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S397">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T397">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U397">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V397">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W397">
         <v>-1</v>
       </c>
       <c r="X397">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
+        <v>-1</v>
+      </c>
+      <c r="AA397">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB397">
         <v>-0.5</v>
       </c>
-      <c r="AA397">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB397">
-        <v>-1</v>
-      </c>
       <c r="AC397">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -39056,7 +39056,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>6947880</v>
+        <v>6949800</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39068,10 +39068,10 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F433" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G433" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H433">
         <v>2</v>
@@ -39083,43 +39083,43 @@
         <v>72</v>
       </c>
       <c r="K433">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L433">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M433">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N433">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O433">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P433">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q433">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R433">
+        <v>2</v>
+      </c>
+      <c r="S433">
         <v>1.8</v>
       </c>
-      <c r="S433">
-        <v>2</v>
-      </c>
       <c r="T433">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U433">
+        <v>1.85</v>
+      </c>
+      <c r="V433">
         <v>1.95</v>
       </c>
-      <c r="V433">
-        <v>1.85</v>
-      </c>
       <c r="W433">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X433">
         <v>-1</v>
@@ -39128,16 +39128,16 @@
         <v>-1</v>
       </c>
       <c r="Z433">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA433">
         <v>-1</v>
       </c>
       <c r="AB433">
+        <v>0.425</v>
+      </c>
+      <c r="AC433">
         <v>-0.5</v>
-      </c>
-      <c r="AC433">
-        <v>0.425</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39145,7 +39145,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>6949800</v>
+        <v>6947880</v>
       </c>
       <c r="C434" t="s">
         <v>28</v>
@@ -39157,10 +39157,10 @@
         <v>45326.33333333334</v>
       </c>
       <c r="F434" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G434" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H434">
         <v>2</v>
@@ -39172,61 +39172,61 @@
         <v>72</v>
       </c>
       <c r="K434">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L434">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M434">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N434">
+        <v>2.5</v>
+      </c>
+      <c r="O434">
+        <v>3.2</v>
+      </c>
+      <c r="P434">
+        <v>2.625</v>
+      </c>
+      <c r="Q434">
+        <v>0</v>
+      </c>
+      <c r="R434">
+        <v>1.8</v>
+      </c>
+      <c r="S434">
+        <v>2</v>
+      </c>
+      <c r="T434">
+        <v>2.25</v>
+      </c>
+      <c r="U434">
         <v>1.95</v>
       </c>
-      <c r="O434">
-        <v>2.9</v>
-      </c>
-      <c r="P434">
-        <v>3.8</v>
-      </c>
-      <c r="Q434">
+      <c r="V434">
+        <v>1.85</v>
+      </c>
+      <c r="W434">
+        <v>1.5</v>
+      </c>
+      <c r="X434">
+        <v>-1</v>
+      </c>
+      <c r="Y434">
+        <v>-1</v>
+      </c>
+      <c r="Z434">
+        <v>0.8</v>
+      </c>
+      <c r="AA434">
+        <v>-1</v>
+      </c>
+      <c r="AB434">
         <v>-0.5</v>
       </c>
-      <c r="R434">
-        <v>2</v>
-      </c>
-      <c r="S434">
-        <v>1.8</v>
-      </c>
-      <c r="T434">
-        <v>1.75</v>
-      </c>
-      <c r="U434">
-        <v>1.85</v>
-      </c>
-      <c r="V434">
-        <v>1.95</v>
-      </c>
-      <c r="W434">
-        <v>0.95</v>
-      </c>
-      <c r="X434">
-        <v>-1</v>
-      </c>
-      <c r="Y434">
-        <v>-1</v>
-      </c>
-      <c r="Z434">
-        <v>1</v>
-      </c>
-      <c r="AA434">
-        <v>-1</v>
-      </c>
-      <c r="AB434">
+      <c r="AC434">
         <v>0.425</v>
-      </c>
-      <c r="AC434">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="435" spans="1:29">
@@ -39234,7 +39234,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>6947774</v>
+        <v>6947775</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
@@ -39246,76 +39246,76 @@
         <v>45326.5</v>
       </c>
       <c r="F435" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G435" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J435" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K435">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L435">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M435">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N435">
+        <v>2.75</v>
+      </c>
+      <c r="O435">
+        <v>2.75</v>
+      </c>
+      <c r="P435">
+        <v>2.55</v>
+      </c>
+      <c r="Q435">
+        <v>0</v>
+      </c>
+      <c r="R435">
+        <v>2</v>
+      </c>
+      <c r="S435">
         <v>1.8</v>
       </c>
-      <c r="O435">
-        <v>3.1</v>
-      </c>
-      <c r="P435">
-        <v>4.2</v>
-      </c>
-      <c r="Q435">
+      <c r="T435">
+        <v>1.75</v>
+      </c>
+      <c r="U435">
+        <v>1.75</v>
+      </c>
+      <c r="V435">
+        <v>2.05</v>
+      </c>
+      <c r="W435">
+        <v>-1</v>
+      </c>
+      <c r="X435">
+        <v>-1</v>
+      </c>
+      <c r="Y435">
+        <v>1.55</v>
+      </c>
+      <c r="Z435">
+        <v>-1</v>
+      </c>
+      <c r="AA435">
+        <v>0.8</v>
+      </c>
+      <c r="AB435">
+        <v>0.375</v>
+      </c>
+      <c r="AC435">
         <v>-0.5</v>
-      </c>
-      <c r="R435">
-        <v>1.85</v>
-      </c>
-      <c r="S435">
-        <v>1.95</v>
-      </c>
-      <c r="T435">
-        <v>2</v>
-      </c>
-      <c r="U435">
-        <v>2</v>
-      </c>
-      <c r="V435">
-        <v>1.8</v>
-      </c>
-      <c r="W435">
-        <v>-1</v>
-      </c>
-      <c r="X435">
-        <v>2.1</v>
-      </c>
-      <c r="Y435">
-        <v>-1</v>
-      </c>
-      <c r="Z435">
-        <v>-1</v>
-      </c>
-      <c r="AA435">
-        <v>0.95</v>
-      </c>
-      <c r="AB435">
-        <v>0</v>
-      </c>
-      <c r="AC435">
-        <v>-0</v>
       </c>
     </row>
     <row r="436" spans="1:29">
@@ -39323,7 +39323,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>6947775</v>
+        <v>6947774</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39335,76 +39335,76 @@
         <v>45326.5</v>
       </c>
       <c r="F436" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G436" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I436">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J436" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K436">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L436">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M436">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N436">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O436">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P436">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q436">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R436">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S436">
+        <v>1.95</v>
+      </c>
+      <c r="T436">
+        <v>2</v>
+      </c>
+      <c r="U436">
+        <v>2</v>
+      </c>
+      <c r="V436">
         <v>1.8</v>
       </c>
-      <c r="T436">
-        <v>1.75</v>
-      </c>
-      <c r="U436">
-        <v>1.75</v>
-      </c>
-      <c r="V436">
-        <v>2.05</v>
-      </c>
       <c r="W436">
         <v>-1</v>
       </c>
       <c r="X436">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y436">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z436">
         <v>-1</v>
       </c>
       <c r="AA436">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB436">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC436">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39412,7 +39412,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>6949602</v>
+        <v>6947882</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39424,73 +39424,73 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F437" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G437" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I437">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J437" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K437">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L437">
+        <v>3</v>
+      </c>
+      <c r="M437">
         <v>3.25</v>
       </c>
-      <c r="M437">
-        <v>5.25</v>
-      </c>
       <c r="N437">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O437">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P437">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q437">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R437">
+        <v>1.775</v>
+      </c>
+      <c r="S437">
+        <v>2.025</v>
+      </c>
+      <c r="T437">
+        <v>2</v>
+      </c>
+      <c r="U437">
+        <v>1.85</v>
+      </c>
+      <c r="V437">
         <v>1.95</v>
       </c>
-      <c r="S437">
-        <v>1.85</v>
-      </c>
-      <c r="T437">
-        <v>2</v>
-      </c>
-      <c r="U437">
-        <v>1.95</v>
-      </c>
-      <c r="V437">
-        <v>1.85</v>
-      </c>
       <c r="W437">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X437">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y437">
         <v>-1</v>
       </c>
       <c r="Z437">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA437">
+        <v>-1</v>
+      </c>
+      <c r="AB437">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB437">
-        <v>0.95</v>
       </c>
       <c r="AC437">
         <v>-1</v>
@@ -39501,7 +39501,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>6947882</v>
+        <v>6949602</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39513,73 +39513,73 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F438" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G438" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H438">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J438" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K438">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L438">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M438">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N438">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O438">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P438">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q438">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R438">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S438">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T438">
         <v>2</v>
       </c>
       <c r="U438">
+        <v>1.95</v>
+      </c>
+      <c r="V438">
         <v>1.85</v>
       </c>
-      <c r="V438">
-        <v>1.95</v>
-      </c>
       <c r="W438">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X438">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y438">
         <v>-1</v>
       </c>
       <c r="Z438">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA438">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB438">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC438">
         <v>-1</v>
@@ -41726,7 +41726,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>6947897</v>
+        <v>6949806</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41738,58 +41738,58 @@
         <v>45339.5</v>
       </c>
       <c r="F463" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G463" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H463">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J463" t="s">
         <v>72</v>
       </c>
       <c r="K463">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L463">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M463">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N463">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O463">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P463">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q463">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R463">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S463">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T463">
         <v>2</v>
       </c>
       <c r="U463">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V463">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W463">
-        <v>2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X463">
         <v>-1</v>
@@ -41798,13 +41798,13 @@
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA463">
         <v>-1</v>
       </c>
       <c r="AB463">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC463">
         <v>-1</v>
@@ -41815,7 +41815,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6949806</v>
+        <v>6947897</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41827,58 +41827,58 @@
         <v>45339.5</v>
       </c>
       <c r="F464" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G464" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464" t="s">
         <v>72</v>
       </c>
       <c r="K464">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L464">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M464">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N464">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O464">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P464">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q464">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R464">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S464">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T464">
         <v>2</v>
       </c>
       <c r="U464">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V464">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W464">
-        <v>0.8500000000000001</v>
+        <v>2</v>
       </c>
       <c r="X464">
         <v>-1</v>
@@ -41887,13 +41887,13 @@
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA464">
         <v>-1</v>
       </c>
       <c r="AB464">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC464">
         <v>-1</v>
@@ -43862,7 +43862,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>6947798</v>
+        <v>6949725</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43874,40 +43874,40 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F487" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G487" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487">
+        <v>0</v>
+      </c>
+      <c r="J487" t="s">
+        <v>72</v>
+      </c>
+      <c r="K487">
+        <v>1.909</v>
+      </c>
+      <c r="L487">
         <v>3</v>
       </c>
-      <c r="J487" t="s">
-        <v>74</v>
-      </c>
-      <c r="K487">
-        <v>2.2</v>
-      </c>
-      <c r="L487">
-        <v>2.9</v>
-      </c>
       <c r="M487">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N487">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O487">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P487">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q487">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R487">
         <v>2.025</v>
@@ -43925,25 +43925,25 @@
         <v>1.775</v>
       </c>
       <c r="W487">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X487">
         <v>-1</v>
       </c>
       <c r="Y487">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z487">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA487">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB487">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC487">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -43951,7 +43951,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>6949725</v>
+        <v>6947798</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43963,40 +43963,40 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F488" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G488" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J488" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K488">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L488">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M488">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N488">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O488">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P488">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q488">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R488">
         <v>2.025</v>
@@ -44014,25 +44014,25 @@
         <v>1.775</v>
       </c>
       <c r="W488">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X488">
         <v>-1</v>
       </c>
       <c r="Y488">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z488">
+        <v>-1</v>
+      </c>
+      <c r="AA488">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB488">
         <v>1.025</v>
       </c>
-      <c r="AA488">
-        <v>-1</v>
-      </c>
-      <c r="AB488">
-        <v>0</v>
-      </c>
       <c r="AC488">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -44574,25 +44574,25 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>6949722</v>
+        <v>6949611</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
       </c>
       <c r="D495" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E495" s="2">
         <v>45347.5</v>
       </c>
       <c r="F495" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G495" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I495">
         <v>2</v>
@@ -44601,40 +44601,40 @@
         <v>74</v>
       </c>
       <c r="K495">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="L495">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M495">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="N495">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="O495">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P495">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q495">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R495">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S495">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T495">
         <v>2</v>
       </c>
       <c r="U495">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V495">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W495">
         <v>-1</v>
@@ -44643,19 +44643,19 @@
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>4.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z495">
         <v>-1</v>
       </c>
       <c r="AA495">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB495">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC495">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496" spans="1:29">
@@ -44663,25 +44663,25 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>6949611</v>
+        <v>6949722</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
       </c>
       <c r="D496" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E496" s="2">
         <v>45347.5</v>
       </c>
       <c r="F496" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G496" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -44690,40 +44690,40 @@
         <v>74</v>
       </c>
       <c r="K496">
-        <v>4</v>
+        <v>1.533</v>
       </c>
       <c r="L496">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M496">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="N496">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="O496">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P496">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q496">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R496">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S496">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T496">
         <v>2</v>
       </c>
       <c r="U496">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V496">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W496">
         <v>-1</v>
@@ -44732,19 +44732,19 @@
         <v>-1</v>
       </c>
       <c r="Y496">
-        <v>1.15</v>
+        <v>4.25</v>
       </c>
       <c r="Z496">
         <v>-1</v>
       </c>
       <c r="AA496">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB496">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC496">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="497" spans="1:29">
@@ -45553,7 +45553,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6949737</v>
+        <v>6949733</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45565,76 +45565,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F506" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G506" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H506">
         <v>1</v>
       </c>
       <c r="I506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J506" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K506">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L506">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M506">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N506">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O506">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P506">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q506">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R506">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S506">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T506">
         <v>2</v>
       </c>
       <c r="U506">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V506">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W506">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X506">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y506">
         <v>-1</v>
       </c>
       <c r="Z506">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA506">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB506">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC506">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45642,7 +45642,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6949733</v>
+        <v>6949737</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45654,76 +45654,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F507" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G507" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507" t="s">
+        <v>72</v>
+      </c>
+      <c r="K507">
+        <v>2</v>
+      </c>
+      <c r="L507">
+        <v>3</v>
+      </c>
+      <c r="M507">
+        <v>3.6</v>
+      </c>
+      <c r="N507">
+        <v>2</v>
+      </c>
+      <c r="O507">
+        <v>2.875</v>
+      </c>
+      <c r="P507">
+        <v>3.8</v>
+      </c>
+      <c r="Q507">
+        <v>-0.25</v>
+      </c>
+      <c r="R507">
+        <v>1.75</v>
+      </c>
+      <c r="S507">
+        <v>2.05</v>
+      </c>
+      <c r="T507">
+        <v>2</v>
+      </c>
+      <c r="U507">
+        <v>2</v>
+      </c>
+      <c r="V507">
+        <v>1.8</v>
+      </c>
+      <c r="W507">
         <v>1</v>
       </c>
-      <c r="J507" t="s">
-        <v>73</v>
-      </c>
-      <c r="K507">
-        <v>1.4</v>
-      </c>
-      <c r="L507">
-        <v>3.75</v>
-      </c>
-      <c r="M507">
-        <v>7.5</v>
-      </c>
-      <c r="N507">
-        <v>1.65</v>
-      </c>
-      <c r="O507">
-        <v>3.3</v>
-      </c>
-      <c r="P507">
-        <v>5.25</v>
-      </c>
-      <c r="Q507">
-        <v>-0.75</v>
-      </c>
-      <c r="R507">
-        <v>1.95</v>
-      </c>
-      <c r="S507">
-        <v>1.85</v>
-      </c>
-      <c r="T507">
-        <v>2</v>
-      </c>
-      <c r="U507">
-        <v>1.95</v>
-      </c>
-      <c r="V507">
-        <v>1.85</v>
-      </c>
-      <c r="W507">
-        <v>-1</v>
-      </c>
       <c r="X507">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y507">
         <v>-1</v>
       </c>
       <c r="Z507">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA507">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB507">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC507">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -48045,7 +48045,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6947909</v>
+        <v>6949815</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -48057,76 +48057,76 @@
         <v>45361.5</v>
       </c>
       <c r="F534" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G534" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534">
         <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K534">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L534">
+        <v>2.8</v>
+      </c>
+      <c r="M534">
+        <v>2.45</v>
+      </c>
+      <c r="N534">
         <v>3</v>
       </c>
-      <c r="M534">
-        <v>2.4</v>
-      </c>
-      <c r="N534">
-        <v>2.55</v>
-      </c>
       <c r="O534">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P534">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q534">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R534">
+        <v>1.825</v>
+      </c>
+      <c r="S534">
+        <v>1.975</v>
+      </c>
+      <c r="T534">
+        <v>2</v>
+      </c>
+      <c r="U534">
         <v>1.85</v>
       </c>
-      <c r="S534">
+      <c r="V534">
         <v>1.95</v>
       </c>
-      <c r="T534">
-        <v>2</v>
-      </c>
-      <c r="U534">
-        <v>2</v>
-      </c>
-      <c r="V534">
-        <v>1.8</v>
-      </c>
       <c r="W534">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X534">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y534">
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA534">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB534">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC534">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -48134,7 +48134,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>6949815</v>
+        <v>6947909</v>
       </c>
       <c r="C535" t="s">
         <v>28</v>
@@ -48146,76 +48146,76 @@
         <v>45361.5</v>
       </c>
       <c r="F535" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G535" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535">
         <v>0</v>
       </c>
       <c r="J535" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K535">
+        <v>2.75</v>
+      </c>
+      <c r="L535">
+        <v>3</v>
+      </c>
+      <c r="M535">
+        <v>2.4</v>
+      </c>
+      <c r="N535">
+        <v>2.55</v>
+      </c>
+      <c r="O535">
         <v>2.875</v>
       </c>
-      <c r="L535">
-        <v>2.8</v>
-      </c>
-      <c r="M535">
-        <v>2.45</v>
-      </c>
-      <c r="N535">
-        <v>3</v>
-      </c>
-      <c r="O535">
-        <v>3</v>
-      </c>
       <c r="P535">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q535">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R535">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S535">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T535">
         <v>2</v>
       </c>
       <c r="U535">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V535">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W535">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X535">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y535">
         <v>-1</v>
       </c>
       <c r="Z535">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA535">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB535">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC535">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="536" spans="1:29">
@@ -48757,7 +48757,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>7956387</v>
+        <v>6949749</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48769,76 +48769,76 @@
         <v>45367.5</v>
       </c>
       <c r="F542" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G542" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J542" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K542">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L542">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M542">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="N542">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O542">
         <v>3</v>
       </c>
       <c r="P542">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q542">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R542">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S542">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T542">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U542">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V542">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W542">
         <v>-1</v>
       </c>
       <c r="X542">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y542">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z542">
         <v>-1</v>
       </c>
       <c r="AA542">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB542">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC542">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="543" spans="1:29">
@@ -48846,7 +48846,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>6949749</v>
+        <v>7956387</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48858,76 +48858,76 @@
         <v>45367.5</v>
       </c>
       <c r="F543" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G543" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J543" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K543">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L543">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M543">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N543">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O543">
         <v>3</v>
       </c>
       <c r="P543">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q543">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R543">
+        <v>1.85</v>
+      </c>
+      <c r="S543">
+        <v>1.95</v>
+      </c>
+      <c r="T543">
+        <v>2</v>
+      </c>
+      <c r="U543">
         <v>1.9</v>
       </c>
-      <c r="S543">
+      <c r="V543">
         <v>1.9</v>
       </c>
-      <c r="T543">
-        <v>1.75</v>
-      </c>
-      <c r="U543">
-        <v>1.725</v>
-      </c>
-      <c r="V543">
-        <v>1.975</v>
-      </c>
       <c r="W543">
         <v>-1</v>
       </c>
       <c r="X543">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y543">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z543">
         <v>-1</v>
       </c>
       <c r="AA543">
+        <v>0.95</v>
+      </c>
+      <c r="AB543">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB543">
-        <v>-1</v>
-      </c>
       <c r="AC543">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544" spans="1:29">
@@ -49736,7 +49736,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>6949817</v>
+        <v>6949621</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -49748,67 +49748,67 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F553" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G553" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I553">
         <v>0</v>
       </c>
       <c r="J553" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K553">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L553">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M553">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N553">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O553">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P553">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q553">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R553">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S553">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T553">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U553">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V553">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W553">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X553">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y553">
         <v>-1</v>
       </c>
       <c r="Z553">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA553">
         <v>-0.5</v>
@@ -49817,7 +49817,7 @@
         <v>-1</v>
       </c>
       <c r="AC553">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="554" spans="1:29">
@@ -49825,7 +49825,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>6947935</v>
+        <v>6949622</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -49837,40 +49837,40 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F554" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G554" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H554">
+        <v>4</v>
+      </c>
+      <c r="I554">
         <v>3</v>
-      </c>
-      <c r="I554">
-        <v>0</v>
       </c>
       <c r="J554" t="s">
         <v>72</v>
       </c>
       <c r="K554">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L554">
+        <v>3.3</v>
+      </c>
+      <c r="M554">
+        <v>2.9</v>
+      </c>
+      <c r="N554">
+        <v>2.05</v>
+      </c>
+      <c r="O554">
         <v>3</v>
       </c>
-      <c r="M554">
-        <v>3.4</v>
-      </c>
-      <c r="N554">
-        <v>1.75</v>
-      </c>
-      <c r="O554">
-        <v>3.2</v>
-      </c>
       <c r="P554">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q554">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R554">
         <v>1.8</v>
@@ -49879,16 +49879,16 @@
         <v>2</v>
       </c>
       <c r="T554">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U554">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V554">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W554">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="X554">
         <v>-1</v>
@@ -49903,7 +49903,7 @@
         <v>-1</v>
       </c>
       <c r="AB554">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC554">
         <v>-1</v>
@@ -49914,7 +49914,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>6949621</v>
+        <v>6949817</v>
       </c>
       <c r="C555" t="s">
         <v>28</v>
@@ -49926,67 +49926,67 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F555" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G555" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555">
         <v>0</v>
       </c>
       <c r="J555" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K555">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L555">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M555">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N555">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O555">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P555">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q555">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R555">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S555">
+        <v>2.025</v>
+      </c>
+      <c r="T555">
+        <v>1.75</v>
+      </c>
+      <c r="U555">
+        <v>1.725</v>
+      </c>
+      <c r="V555">
         <v>1.975</v>
       </c>
-      <c r="T555">
-        <v>2.25</v>
-      </c>
-      <c r="U555">
-        <v>1.975</v>
-      </c>
-      <c r="V555">
-        <v>1.825</v>
-      </c>
       <c r="W555">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X555">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y555">
         <v>-1</v>
       </c>
       <c r="Z555">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AA555">
         <v>-0.5</v>
@@ -49995,7 +49995,7 @@
         <v>-1</v>
       </c>
       <c r="AC555">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="556" spans="1:29">
@@ -50003,7 +50003,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>6949622</v>
+        <v>6947935</v>
       </c>
       <c r="C556" t="s">
         <v>28</v>
@@ -50015,40 +50015,40 @@
         <v>45368.33333333334</v>
       </c>
       <c r="F556" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G556" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H556">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I556">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J556" t="s">
         <v>72</v>
       </c>
       <c r="K556">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L556">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M556">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N556">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O556">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P556">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q556">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R556">
         <v>1.8</v>
@@ -50057,16 +50057,16 @@
         <v>2</v>
       </c>
       <c r="T556">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U556">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V556">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W556">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="X556">
         <v>-1</v>
@@ -50081,7 +50081,7 @@
         <v>-1</v>
       </c>
       <c r="AB556">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC556">
         <v>-1</v>
@@ -50537,88 +50537,88 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>6947940</v>
+        <v>6948943</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
       </c>
       <c r="D562" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E562" s="2">
         <v>45374.5</v>
       </c>
       <c r="F562" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G562" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I562">
         <v>1</v>
       </c>
       <c r="J562" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K562">
+        <v>2.5</v>
+      </c>
+      <c r="L562">
+        <v>3.2</v>
+      </c>
+      <c r="M562">
+        <v>2.5</v>
+      </c>
+      <c r="N562">
+        <v>3</v>
+      </c>
+      <c r="O562">
+        <v>3.25</v>
+      </c>
+      <c r="P562">
+        <v>2.1</v>
+      </c>
+      <c r="Q562">
+        <v>0.25</v>
+      </c>
+      <c r="R562">
+        <v>1.9</v>
+      </c>
+      <c r="S562">
+        <v>1.9</v>
+      </c>
+      <c r="T562">
+        <v>2</v>
+      </c>
+      <c r="U562">
+        <v>1.85</v>
+      </c>
+      <c r="V562">
+        <v>1.95</v>
+      </c>
+      <c r="W562">
+        <v>-1</v>
+      </c>
+      <c r="X562">
         <v>2.25</v>
       </c>
-      <c r="L562">
-        <v>3.25</v>
-      </c>
-      <c r="M562">
-        <v>2.75</v>
-      </c>
-      <c r="N562">
-        <v>2.4</v>
-      </c>
-      <c r="O562">
-        <v>2.75</v>
-      </c>
-      <c r="P562">
-        <v>3</v>
-      </c>
-      <c r="Q562">
-        <v>-0.25</v>
-      </c>
-      <c r="R562">
-        <v>2.075</v>
-      </c>
-      <c r="S562">
-        <v>1.725</v>
-      </c>
-      <c r="T562">
-        <v>2</v>
-      </c>
-      <c r="U562">
-        <v>2.025</v>
-      </c>
-      <c r="V562">
-        <v>1.775</v>
-      </c>
-      <c r="W562">
-        <v>-1</v>
-      </c>
-      <c r="X562">
-        <v>-1</v>
-      </c>
       <c r="Y562">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z562">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA562">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB562">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC562">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -50626,88 +50626,88 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>6948944</v>
+        <v>6947940</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
       </c>
       <c r="D563" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E563" s="2">
         <v>45374.5</v>
       </c>
       <c r="F563" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G563" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K563">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L563">
         <v>3.25</v>
       </c>
       <c r="M563">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N563">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O563">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P563">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q563">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R563">
+        <v>2.075</v>
+      </c>
+      <c r="S563">
+        <v>1.725</v>
+      </c>
+      <c r="T563">
+        <v>2</v>
+      </c>
+      <c r="U563">
         <v>2.025</v>
       </c>
-      <c r="S563">
+      <c r="V563">
         <v>1.775</v>
       </c>
-      <c r="T563">
-        <v>2</v>
-      </c>
-      <c r="U563">
-        <v>1.825</v>
-      </c>
-      <c r="V563">
-        <v>1.975</v>
-      </c>
       <c r="W563">
         <v>-1</v>
       </c>
       <c r="X563">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y563">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z563">
         <v>-1</v>
       </c>
       <c r="AA563">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB563">
+        <v>-1</v>
+      </c>
+      <c r="AC563">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB563">
-        <v>0.825</v>
-      </c>
-      <c r="AC563">
-        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50715,7 +50715,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>6948943</v>
+        <v>6948944</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50727,76 +50727,76 @@
         <v>45374.5</v>
       </c>
       <c r="F564" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G564" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I564">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J564" t="s">
         <v>73</v>
       </c>
       <c r="K564">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L564">
+        <v>3.25</v>
+      </c>
+      <c r="M564">
+        <v>3.25</v>
+      </c>
+      <c r="N564">
+        <v>1.727</v>
+      </c>
+      <c r="O564">
         <v>3.2</v>
       </c>
-      <c r="M564">
-        <v>2.5</v>
-      </c>
-      <c r="N564">
-        <v>3</v>
-      </c>
-      <c r="O564">
-        <v>3.25</v>
-      </c>
       <c r="P564">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q564">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R564">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S564">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T564">
         <v>2</v>
       </c>
       <c r="U564">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V564">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W564">
         <v>-1</v>
       </c>
       <c r="X564">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y564">
         <v>-1</v>
       </c>
       <c r="Z564">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA564">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB564">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC564">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -51338,7 +51338,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6947937</v>
+        <v>6949623</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51350,76 +51350,76 @@
         <v>45375.33333333334</v>
       </c>
       <c r="F571" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G571" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H571">
         <v>1</v>
       </c>
       <c r="I571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J571" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K571">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="L571">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M571">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N571">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O571">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P571">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q571">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R571">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S571">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T571">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U571">
+        <v>2.025</v>
+      </c>
+      <c r="V571">
         <v>1.775</v>
       </c>
-      <c r="V571">
-        <v>2.025</v>
-      </c>
       <c r="W571">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X571">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA571">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB571">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC571">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51427,7 +51427,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6949623</v>
+        <v>6947937</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51439,76 +51439,76 @@
         <v>45375.33333333334</v>
       </c>
       <c r="F572" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G572" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H572">
         <v>1</v>
       </c>
       <c r="I572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J572" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K572">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="L572">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M572">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N572">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O572">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P572">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q572">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R572">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S572">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T572">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U572">
+        <v>1.775</v>
+      </c>
+      <c r="V572">
         <v>2.025</v>
       </c>
-      <c r="V572">
-        <v>1.775</v>
-      </c>
       <c r="W572">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X572">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA572">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB572">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC572">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="573" spans="1:29">

--- a/Spain Primera Division RFEF/Spain Primera Division RFEF.xlsx
+++ b/Spain Primera Division RFEF/Spain Primera Division RFEF.xlsx
@@ -39061,7 +39061,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>6947877</v>
+        <v>6947878</v>
       </c>
       <c r="C419" t="s">
         <v>29</v>
@@ -39070,10 +39070,10 @@
         <v>45319.66666666666</v>
       </c>
       <c r="E419" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F419" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G419">
         <v>0</v>
@@ -39091,61 +39091,61 @@
         <v>72</v>
       </c>
       <c r="L419">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="M419">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N419">
+        <v>5.5</v>
+      </c>
+      <c r="O419">
+        <v>1.533</v>
+      </c>
+      <c r="P419">
         <v>3.4</v>
       </c>
-      <c r="O419">
-        <v>2.25</v>
-      </c>
-      <c r="P419">
-        <v>2.875</v>
-      </c>
       <c r="Q419">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="R419">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S419">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T419">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U419">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V419">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W419">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X419">
         <v>-1</v>
       </c>
       <c r="Y419">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Z419">
         <v>-1</v>
       </c>
       <c r="AA419">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB419">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC419">
         <v>-1</v>
       </c>
       <c r="AD419">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="420" spans="1:30">
@@ -39153,7 +39153,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>6947878</v>
+        <v>6947877</v>
       </c>
       <c r="C420" t="s">
         <v>29</v>
@@ -39162,10 +39162,10 @@
         <v>45319.66666666666</v>
       </c>
       <c r="E420" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F420" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G420">
         <v>0</v>
@@ -39183,61 +39183,61 @@
         <v>72</v>
       </c>
       <c r="L420">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="M420">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N420">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O420">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P420">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q420">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="R420">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S420">
+        <v>1.95</v>
+      </c>
+      <c r="T420">
+        <v>1.85</v>
+      </c>
+      <c r="U420">
+        <v>2</v>
+      </c>
+      <c r="V420">
         <v>1.9</v>
       </c>
-      <c r="T420">
+      <c r="W420">
         <v>1.9</v>
       </c>
-      <c r="U420">
-        <v>2.5</v>
-      </c>
-      <c r="V420">
-        <v>2</v>
-      </c>
-      <c r="W420">
-        <v>1.8</v>
-      </c>
       <c r="X420">
         <v>-1</v>
       </c>
       <c r="Y420">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Z420">
         <v>-1</v>
       </c>
       <c r="AA420">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB420">
+        <v>0.425</v>
+      </c>
+      <c r="AC420">
+        <v>-1</v>
+      </c>
+      <c r="AD420">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC420">
-        <v>-1</v>
-      </c>
-      <c r="AD420">
-        <v>0.8</v>
       </c>
     </row>
     <row r="421" spans="1:30">
@@ -63901,7 +63901,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>6952704</v>
+        <v>6952698</v>
       </c>
       <c r="C689" t="s">
         <v>29</v>
@@ -63910,13 +63910,13 @@
         <v>45417.29166666666</v>
       </c>
       <c r="E689" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F689" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G689">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H689">
         <v>0</v>
@@ -63931,43 +63931,43 @@
         <v>71</v>
       </c>
       <c r="L689">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="M689">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N689">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O689">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="P689">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q689">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="R689">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S689">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T689">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U689">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V689">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W689">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X689">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y689">
         <v>-1</v>
@@ -63976,7 +63976,7 @@
         <v>-1</v>
       </c>
       <c r="AA689">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB689">
         <v>-1</v>
@@ -63985,7 +63985,7 @@
         <v>-1</v>
       </c>
       <c r="AD689">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="690" spans="1:30">
@@ -64085,7 +64085,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>6952695</v>
+        <v>6952704</v>
       </c>
       <c r="C691" t="s">
         <v>29</v>
@@ -64094,19 +64094,19 @@
         <v>45417.29166666666</v>
       </c>
       <c r="E691" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F691" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G691">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H691">
         <v>0</v>
       </c>
       <c r="I691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J691">
         <v>0</v>
@@ -64115,43 +64115,43 @@
         <v>71</v>
       </c>
       <c r="L691">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="M691">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N691">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O691">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="P691">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q691">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="R691">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S691">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T691">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U691">
         <v>2.5</v>
       </c>
       <c r="V691">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W691">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X691">
-        <v>0.333</v>
+        <v>0.75</v>
       </c>
       <c r="Y691">
         <v>-1</v>
@@ -64160,16 +64160,16 @@
         <v>-1</v>
       </c>
       <c r="AA691">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB691">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC691">
         <v>-1</v>
       </c>
       <c r="AD691">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="692" spans="1:30">
@@ -64177,7 +64177,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>6952698</v>
+        <v>6952695</v>
       </c>
       <c r="C692" t="s">
         <v>29</v>
@@ -64186,10 +64186,10 @@
         <v>45417.29166666666</v>
       </c>
       <c r="E692" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F692" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G692">
         <v>1</v>
@@ -64198,7 +64198,7 @@
         <v>0</v>
       </c>
       <c r="I692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J692">
         <v>0</v>
@@ -64207,43 +64207,43 @@
         <v>71</v>
       </c>
       <c r="L692">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="M692">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N692">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="O692">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="P692">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q692">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="R692">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S692">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T692">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U692">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V692">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W692">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X692">
-        <v>2.6</v>
+        <v>0.333</v>
       </c>
       <c r="Y692">
         <v>-1</v>
@@ -64252,16 +64252,16 @@
         <v>-1</v>
       </c>
       <c r="AA692">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB692">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC692">
         <v>-1</v>
       </c>
       <c r="AD692">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="693" spans="1:30">
@@ -65741,7 +65741,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>6953810</v>
+        <v>6953817</v>
       </c>
       <c r="C709" t="s">
         <v>29</v>
@@ -65750,79 +65750,79 @@
         <v>45424.29166666666</v>
       </c>
       <c r="E709" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F709" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G709">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I709">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J709">
         <v>1</v>
       </c>
       <c r="K709" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L709">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M709">
         <v>3.25</v>
       </c>
       <c r="N709">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O709">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P709">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q709">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="R709">
         <v>-0.5</v>
       </c>
       <c r="S709">
+        <v>1.875</v>
+      </c>
+      <c r="T709">
+        <v>1.925</v>
+      </c>
+      <c r="U709">
+        <v>2.5</v>
+      </c>
+      <c r="V709">
+        <v>2</v>
+      </c>
+      <c r="W709">
         <v>1.8</v>
       </c>
-      <c r="T709">
-        <v>2</v>
-      </c>
-      <c r="U709">
-        <v>2.25</v>
-      </c>
-      <c r="V709">
-        <v>1.975</v>
-      </c>
-      <c r="W709">
-        <v>1.825</v>
-      </c>
       <c r="X709">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y709">
         <v>-1</v>
       </c>
       <c r="Z709">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA709">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB709">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC709">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD709">
         <v>-1</v>
@@ -65833,7 +65833,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>6953818</v>
+        <v>6953810</v>
       </c>
       <c r="C710" t="s">
         <v>29</v>
@@ -65842,13 +65842,13 @@
         <v>45424.29166666666</v>
       </c>
       <c r="E710" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F710" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G710">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H710">
         <v>1</v>
@@ -65863,43 +65863,43 @@
         <v>71</v>
       </c>
       <c r="L710">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="M710">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N710">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O710">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="P710">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q710">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="R710">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S710">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T710">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U710">
         <v>2.25</v>
       </c>
       <c r="V710">
+        <v>1.975</v>
+      </c>
+      <c r="W710">
         <v>1.825</v>
       </c>
-      <c r="W710">
-        <v>1.975</v>
-      </c>
       <c r="X710">
-        <v>1.875</v>
+        <v>0.75</v>
       </c>
       <c r="Y710">
         <v>-1</v>
@@ -65908,13 +65908,13 @@
         <v>-1</v>
       </c>
       <c r="AA710">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB710">
         <v>-1</v>
       </c>
       <c r="AC710">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD710">
         <v>-1</v>
@@ -65925,7 +65925,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>6953817</v>
+        <v>6953818</v>
       </c>
       <c r="C711" t="s">
         <v>29</v>
@@ -65934,79 +65934,79 @@
         <v>45424.29166666666</v>
       </c>
       <c r="E711" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F711" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G711">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H711">
+        <v>1</v>
+      </c>
+      <c r="I711">
+        <v>2</v>
+      </c>
+      <c r="J711">
+        <v>1</v>
+      </c>
+      <c r="K711" t="s">
+        <v>71</v>
+      </c>
+      <c r="L711">
+        <v>3.4</v>
+      </c>
+      <c r="M711">
+        <v>3.1</v>
+      </c>
+      <c r="N711">
+        <v>2</v>
+      </c>
+      <c r="O711">
+        <v>2.875</v>
+      </c>
+      <c r="P711">
         <v>3</v>
       </c>
-      <c r="I711">
-        <v>1</v>
-      </c>
-      <c r="J711">
-        <v>1</v>
-      </c>
-      <c r="K711" t="s">
-        <v>73</v>
-      </c>
-      <c r="L711">
-        <v>1.909</v>
-      </c>
-      <c r="M711">
-        <v>3.25</v>
-      </c>
-      <c r="N711">
-        <v>3.5</v>
-      </c>
-      <c r="O711">
-        <v>1.85</v>
-      </c>
-      <c r="P711">
-        <v>3.5</v>
-      </c>
       <c r="Q711">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="R711">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S711">
+        <v>1.775</v>
+      </c>
+      <c r="T711">
+        <v>2.025</v>
+      </c>
+      <c r="U711">
+        <v>2.25</v>
+      </c>
+      <c r="V711">
+        <v>1.825</v>
+      </c>
+      <c r="W711">
+        <v>1.975</v>
+      </c>
+      <c r="X711">
         <v>1.875</v>
       </c>
-      <c r="T711">
-        <v>1.925</v>
-      </c>
-      <c r="U711">
-        <v>2.5</v>
-      </c>
-      <c r="V711">
-        <v>2</v>
-      </c>
-      <c r="W711">
-        <v>1.8</v>
-      </c>
-      <c r="X711">
-        <v>-1</v>
-      </c>
       <c r="Y711">
         <v>-1</v>
       </c>
       <c r="Z711">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA711">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB711">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC711">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AD711">
         <v>-1</v>
@@ -66017,7 +66017,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>6953819</v>
+        <v>6953822</v>
       </c>
       <c r="C712" t="s">
         <v>29</v>
@@ -66026,82 +66026,82 @@
         <v>45424.29166666666</v>
       </c>
       <c r="E712" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F712" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G712">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I712">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J712">
         <v>0</v>
       </c>
       <c r="K712" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L712">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="M712">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N712">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="O712">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="P712">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q712">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="R712">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S712">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T712">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U712">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V712">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W712">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X712">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y712">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z712">
         <v>-1</v>
       </c>
       <c r="AA712">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB712">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC712">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD712">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="713" spans="1:30">
@@ -66109,7 +66109,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>6953822</v>
+        <v>6953819</v>
       </c>
       <c r="C713" t="s">
         <v>29</v>
@@ -66118,82 +66118,82 @@
         <v>45424.29166666666</v>
       </c>
       <c r="E713" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F713" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G713">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J713">
         <v>0</v>
       </c>
       <c r="K713" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L713">
-        <v>4.2</v>
+        <v>1.615</v>
       </c>
       <c r="M713">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N713">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="O713">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="P713">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q713">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="R713">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S713">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T713">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U713">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V713">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W713">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X713">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y713">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z713">
         <v>-1</v>
       </c>
       <c r="AA713">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB713">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC713">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD713">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="714" spans="1:30">
@@ -66661,7 +66661,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>6953808</v>
+        <v>6953825</v>
       </c>
       <c r="C719" t="s">
         <v>29</v>
@@ -66670,46 +66670,46 @@
         <v>45424.625</v>
       </c>
       <c r="E719" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F719" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719">
         <v>0</v>
       </c>
       <c r="J719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K719" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L719">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M719">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N719">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O719">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="P719">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q719">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="R719">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S719">
         <v>1.975</v>
@@ -66718,34 +66718,34 @@
         <v>1.825</v>
       </c>
       <c r="U719">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V719">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W719">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X719">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB719">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC719">
         <v>-1</v>
       </c>
       <c r="AD719">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="720" spans="1:30">
@@ -66753,7 +66753,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>6953825</v>
+        <v>6953808</v>
       </c>
       <c r="C720" t="s">
         <v>29</v>
@@ -66762,46 +66762,46 @@
         <v>45424.625</v>
       </c>
       <c r="E720" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F720" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G720">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I720">
         <v>0</v>
       </c>
       <c r="J720">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K720" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L720">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="M720">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N720">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O720">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="P720">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q720">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="R720">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S720">
         <v>1.975</v>
@@ -66810,34 +66810,34 @@
         <v>1.825</v>
       </c>
       <c r="U720">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V720">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W720">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X720">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y720">
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA720">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB720">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC720">
         <v>-1</v>
       </c>
       <c r="AD720">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="721" spans="1:30">
@@ -68961,7 +68961,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>6956154</v>
+        <v>6956152</v>
       </c>
       <c r="C744" t="s">
         <v>29</v>
@@ -68970,13 +68970,13 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E744" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F744" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G744">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H744">
         <v>0</v>
@@ -68991,31 +68991,31 @@
         <v>71</v>
       </c>
       <c r="L744">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M744">
         <v>3.8</v>
       </c>
       <c r="N744">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O744">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="P744">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q744">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="R744">
         <v>-0.75</v>
       </c>
       <c r="S744">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T744">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U744">
         <v>2.5</v>
@@ -69027,7 +69027,7 @@
         <v>1.9</v>
       </c>
       <c r="X744">
-        <v>0.6659999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y744">
         <v>-1</v>
@@ -69036,16 +69036,16 @@
         <v>-1</v>
       </c>
       <c r="AA744">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AB744">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC744">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD744">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="745" spans="1:30">
@@ -69053,7 +69053,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>6956156</v>
+        <v>6956155</v>
       </c>
       <c r="C745" t="s">
         <v>29</v>
@@ -69062,79 +69062,79 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E745" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F745" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G745">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I745">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J745">
         <v>1</v>
       </c>
       <c r="K745" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L745">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="M745">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N745">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O745">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="P745">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q745">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R745">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S745">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T745">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U745">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V745">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W745">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X745">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y745">
         <v>-1</v>
       </c>
       <c r="Z745">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA745">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB745">
-        <v>0.3875</v>
+        <v>1.05</v>
       </c>
       <c r="AC745">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AD745">
         <v>-1</v>
@@ -69145,7 +69145,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>6956153</v>
+        <v>6956156</v>
       </c>
       <c r="C746" t="s">
         <v>29</v>
@@ -69154,10 +69154,10 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E746" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F746" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G746">
         <v>2</v>
@@ -69166,52 +69166,52 @@
         <v>1</v>
       </c>
       <c r="I746">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J746">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K746" t="s">
         <v>71</v>
       </c>
       <c r="L746">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="M746">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N746">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O746">
+        <v>1.444</v>
+      </c>
+      <c r="P746">
+        <v>4.2</v>
+      </c>
+      <c r="Q746">
+        <v>6</v>
+      </c>
+      <c r="R746">
+        <v>-1.25</v>
+      </c>
+      <c r="S746">
+        <v>2.025</v>
+      </c>
+      <c r="T746">
+        <v>1.775</v>
+      </c>
+      <c r="U746">
         <v>2.5</v>
       </c>
-      <c r="P746">
-        <v>3.1</v>
-      </c>
-      <c r="Q746">
-        <v>2.6</v>
-      </c>
-      <c r="R746">
-        <v>0</v>
-      </c>
-      <c r="S746">
-        <v>1.85</v>
-      </c>
-      <c r="T746">
-        <v>1.95</v>
-      </c>
-      <c r="U746">
-        <v>2.25</v>
-      </c>
       <c r="V746">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W746">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X746">
-        <v>1.5</v>
+        <v>0.444</v>
       </c>
       <c r="Y746">
         <v>-1</v>
@@ -69220,13 +69220,13 @@
         <v>-1</v>
       </c>
       <c r="AA746">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB746">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC746">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AD746">
         <v>-1</v>
@@ -69237,7 +69237,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>6956148</v>
+        <v>6956153</v>
       </c>
       <c r="C747" t="s">
         <v>29</v>
@@ -69246,82 +69246,82 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E747" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F747" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G747">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H747">
         <v>1</v>
       </c>
       <c r="I747">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J747">
         <v>0</v>
       </c>
       <c r="K747" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L747">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="M747">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N747">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="O747">
+        <v>2.5</v>
+      </c>
+      <c r="P747">
+        <v>3.1</v>
+      </c>
+      <c r="Q747">
+        <v>2.6</v>
+      </c>
+      <c r="R747">
+        <v>0</v>
+      </c>
+      <c r="S747">
         <v>1.85</v>
       </c>
-      <c r="P747">
-        <v>3.2</v>
-      </c>
-      <c r="Q747">
-        <v>3.9</v>
-      </c>
-      <c r="R747">
-        <v>-0.5</v>
-      </c>
-      <c r="S747">
+      <c r="T747">
+        <v>1.95</v>
+      </c>
+      <c r="U747">
+        <v>2.25</v>
+      </c>
+      <c r="V747">
         <v>1.875</v>
       </c>
-      <c r="T747">
+      <c r="W747">
         <v>1.925</v>
       </c>
-      <c r="U747">
-        <v>2.75</v>
-      </c>
-      <c r="V747">
-        <v>1.95</v>
-      </c>
-      <c r="W747">
-        <v>1.85</v>
-      </c>
       <c r="X747">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y747">
         <v>-1</v>
       </c>
       <c r="Z747">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="AA747">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB747">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC747">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD747">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="748" spans="1:30">
@@ -69329,7 +69329,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>6956155</v>
+        <v>6956148</v>
       </c>
       <c r="C748" t="s">
         <v>29</v>
@@ -69338,61 +69338,61 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E748" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F748" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G748">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I748">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J748">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K748" t="s">
         <v>73</v>
       </c>
       <c r="L748">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="M748">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N748">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="O748">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="P748">
         <v>3.2</v>
       </c>
       <c r="Q748">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="R748">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S748">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T748">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U748">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V748">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W748">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X748">
         <v>-1</v>
@@ -69401,19 +69401,19 @@
         <v>-1</v>
       </c>
       <c r="Z748">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="AA748">
         <v>-1</v>
       </c>
       <c r="AB748">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC748">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD748">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="749" spans="1:30">
@@ -69421,7 +69421,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>6956157</v>
+        <v>6956154</v>
       </c>
       <c r="C749" t="s">
         <v>29</v>
@@ -69430,64 +69430,64 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E749" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F749" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G749">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749">
         <v>1</v>
       </c>
       <c r="J749">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K749" t="s">
         <v>71</v>
       </c>
       <c r="L749">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="M749">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N749">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O749">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="P749">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q749">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="R749">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S749">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T749">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U749">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V749">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W749">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X749">
-        <v>1.05</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y749">
         <v>-1</v>
@@ -69496,16 +69496,16 @@
         <v>-1</v>
       </c>
       <c r="AA749">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB749">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC749">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD749">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="750" spans="1:30">
@@ -69513,7 +69513,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>6956152</v>
+        <v>6956157</v>
       </c>
       <c r="C750" t="s">
         <v>29</v>
@@ -69522,64 +69522,64 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E750" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F750" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G750">
         <v>3</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750">
         <v>1</v>
       </c>
       <c r="J750">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K750" t="s">
         <v>71</v>
       </c>
       <c r="L750">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="M750">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N750">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O750">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="P750">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q750">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="R750">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S750">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T750">
+        <v>1.95</v>
+      </c>
+      <c r="U750">
+        <v>2.25</v>
+      </c>
+      <c r="V750">
         <v>1.8</v>
       </c>
-      <c r="U750">
-        <v>2.5</v>
-      </c>
-      <c r="V750">
-        <v>1.9</v>
-      </c>
       <c r="W750">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X750">
-        <v>0.7270000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Y750">
         <v>-1</v>
@@ -69588,13 +69588,13 @@
         <v>-1</v>
       </c>
       <c r="AA750">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB750">
         <v>-1</v>
       </c>
       <c r="AC750">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD750">
         <v>-1</v>
@@ -69789,7 +69789,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>6956139</v>
+        <v>6956140</v>
       </c>
       <c r="C753" t="s">
         <v>29</v>
@@ -69798,79 +69798,79 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E753" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F753" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G753">
+        <v>1</v>
+      </c>
+      <c r="H753">
+        <v>2</v>
+      </c>
+      <c r="I753">
+        <v>0</v>
+      </c>
+      <c r="J753">
+        <v>2</v>
+      </c>
+      <c r="K753" t="s">
+        <v>73</v>
+      </c>
+      <c r="L753">
+        <v>2.1</v>
+      </c>
+      <c r="M753">
+        <v>3.2</v>
+      </c>
+      <c r="N753">
+        <v>3.1</v>
+      </c>
+      <c r="O753">
         <v>3</v>
       </c>
-      <c r="H753">
-        <v>3</v>
-      </c>
-      <c r="I753">
-        <v>1</v>
-      </c>
-      <c r="J753">
-        <v>1</v>
-      </c>
-      <c r="K753" t="s">
-        <v>72</v>
-      </c>
-      <c r="L753">
-        <v>3.1</v>
-      </c>
-      <c r="M753">
+      <c r="P753">
         <v>3.25</v>
       </c>
-      <c r="N753">
-        <v>2.05</v>
-      </c>
-      <c r="O753">
-        <v>3.3</v>
-      </c>
-      <c r="P753">
-        <v>3.4</v>
-      </c>
       <c r="Q753">
+        <v>2.15</v>
+      </c>
+      <c r="R753">
+        <v>0.25</v>
+      </c>
+      <c r="S753">
+        <v>1.925</v>
+      </c>
+      <c r="T753">
+        <v>1.875</v>
+      </c>
+      <c r="U753">
+        <v>2.5</v>
+      </c>
+      <c r="V753">
+        <v>1.85</v>
+      </c>
+      <c r="W753">
         <v>1.95</v>
       </c>
-      <c r="R753">
-        <v>0.5</v>
-      </c>
-      <c r="S753">
-        <v>1.775</v>
-      </c>
-      <c r="T753">
-        <v>2.025</v>
-      </c>
-      <c r="U753">
-        <v>2.25</v>
-      </c>
-      <c r="V753">
-        <v>1.825</v>
-      </c>
-      <c r="W753">
-        <v>1.975</v>
-      </c>
       <c r="X753">
         <v>-1</v>
       </c>
       <c r="Y753">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z753">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA753">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB753">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC753">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD753">
         <v>-1</v>
@@ -69881,7 +69881,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>6956142</v>
+        <v>6956139</v>
       </c>
       <c r="C754" t="s">
         <v>29</v>
@@ -69890,82 +69890,82 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E754" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F754" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G754">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I754">
         <v>1</v>
       </c>
       <c r="J754">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K754" t="s">
         <v>72</v>
       </c>
       <c r="L754">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="M754">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N754">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="O754">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="P754">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q754">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="R754">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="S754">
+        <v>1.775</v>
+      </c>
+      <c r="T754">
         <v>2.025</v>
-      </c>
-      <c r="T754">
-        <v>1.775</v>
       </c>
       <c r="U754">
         <v>2.25</v>
       </c>
       <c r="V754">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W754">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X754">
         <v>-1</v>
       </c>
       <c r="Y754">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z754">
         <v>-1</v>
       </c>
       <c r="AA754">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB754">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC754">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD754">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="755" spans="1:30">
@@ -69973,7 +69973,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>6956140</v>
+        <v>6956144</v>
       </c>
       <c r="C755" t="s">
         <v>29</v>
@@ -69982,82 +69982,82 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E755" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F755" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G755">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J755">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K755" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L755">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="M755">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N755">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O755">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="P755">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q755">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="R755">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S755">
+        <v>1.875</v>
+      </c>
+      <c r="T755">
         <v>1.925</v>
-      </c>
-      <c r="T755">
-        <v>1.875</v>
       </c>
       <c r="U755">
         <v>2.5</v>
       </c>
       <c r="V755">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W755">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X755">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y755">
         <v>-1</v>
       </c>
       <c r="Z755">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA755">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB755">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC755">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD755">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="756" spans="1:30">
@@ -70433,7 +70433,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>6956144</v>
+        <v>6956142</v>
       </c>
       <c r="C760" t="s">
         <v>29</v>
@@ -70442,82 +70442,82 @@
         <v>45437.58333333334</v>
       </c>
       <c r="E760" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F760" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G760">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I760">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J760">
         <v>0</v>
       </c>
       <c r="K760" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L760">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="M760">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N760">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="O760">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P760">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="Q760">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="R760">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S760">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T760">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U760">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V760">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W760">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="X760">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y760">
-        <v>-1</v>
+        <v>2.7</v>
       </c>
       <c r="Z760">
         <v>-1</v>
       </c>
       <c r="AA760">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB760">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC760">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD760">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
     </row>
   </sheetData>
